--- a/NOV 2024 2024_MSLSINVDIST.xlsx
+++ b/NOV 2024 2024_MSLSINVDIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091EF27F-CB25-471B-9733-6AD54E6A20D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC212F06-3804-4323-9EFC-E2BF533C4AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="297">
   <si>
     <t>ORDERNO</t>
   </si>
@@ -910,6 +910,18 @@
   </si>
   <si>
     <t>40BC001</t>
+  </si>
+  <si>
+    <t>INV2411IE013411</t>
+  </si>
+  <si>
+    <t>MUBPRSB00010</t>
+  </si>
+  <si>
+    <t>CRH10000</t>
+  </si>
+  <si>
+    <t>28BC01011</t>
   </si>
 </sst>
 </file>
@@ -941,7 +953,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +969,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +1017,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="16" applyNumberFormat="1"/>
@@ -1020,6 +1038,11 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="16" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,23 +1073,7 @@
     <cellStyle name="Normal 8" xfId="5" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Normal 9" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1385,11 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A3EDEE-945D-4631-9436-C34F0AA2C526}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O412"/>
+  <dimension ref="A1:O413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="E403" sqref="E403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1493,11 +1499,11 @@
         <v>0</v>
       </c>
       <c r="L2" s="12">
-        <f>H2*I2</f>
+        <f t="shared" ref="L2:L65" si="0">H2*I2</f>
         <v>121080</v>
       </c>
       <c r="M2" s="12">
-        <f>L2*1.11</f>
+        <f t="shared" ref="M2:M65" si="1">L2*1.11</f>
         <v>134398.80000000002</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -1542,11 +1548,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="12">
-        <f>H3*I3</f>
+        <f t="shared" si="0"/>
         <v>121080</v>
       </c>
       <c r="M3" s="12">
-        <f>L3*1.11</f>
+        <f t="shared" si="1"/>
         <v>134398.80000000002</v>
       </c>
       <c r="N3" s="13" t="s">
@@ -1591,11 +1597,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="12">
-        <f>H4*I4</f>
+        <f t="shared" si="0"/>
         <v>121080</v>
       </c>
       <c r="M4" s="12">
-        <f>L4*1.11</f>
+        <f t="shared" si="1"/>
         <v>134398.80000000002</v>
       </c>
       <c r="N4" s="13" t="s">
@@ -1640,11 +1646,11 @@
         <v>0</v>
       </c>
       <c r="L5" s="12">
-        <f>H5*I5</f>
+        <f t="shared" si="0"/>
         <v>121080</v>
       </c>
       <c r="M5" s="12">
-        <f>L5*1.11</f>
+        <f t="shared" si="1"/>
         <v>134398.80000000002</v>
       </c>
       <c r="N5" s="13" t="s">
@@ -1654,7 +1660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1689,11 +1695,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <f>H6*I6</f>
+        <f t="shared" si="0"/>
         <v>33636</v>
       </c>
       <c r="M6" s="1">
-        <f>L6*1.11</f>
+        <f t="shared" si="1"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N6" t="s">
@@ -1703,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1738,11 +1744,11 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <f>H7*I7</f>
+        <f t="shared" si="0"/>
         <v>33636</v>
       </c>
       <c r="M7" s="1">
-        <f>L7*1.11</f>
+        <f t="shared" si="1"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N7" t="s">
@@ -1752,7 +1758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1787,11 +1793,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f>H8*I8</f>
+        <f t="shared" si="0"/>
         <v>181640</v>
       </c>
       <c r="M8" s="1">
-        <f>L8*1.11</f>
+        <f t="shared" si="1"/>
         <v>201620.40000000002</v>
       </c>
       <c r="N8" t="s">
@@ -1801,7 +1807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1836,11 +1842,11 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <f>H9*I9</f>
+        <f t="shared" si="0"/>
         <v>30270</v>
       </c>
       <c r="M9" s="1">
-        <f>L9*1.11</f>
+        <f t="shared" si="1"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N9" t="s">
@@ -1850,7 +1856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1885,11 +1891,11 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f>H10*I10</f>
+        <f t="shared" si="0"/>
         <v>30270</v>
       </c>
       <c r="M10" s="1">
-        <f>L10*1.11</f>
+        <f t="shared" si="1"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N10" t="s">
@@ -1899,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1934,11 +1940,11 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f>H11*I11</f>
+        <f t="shared" si="0"/>
         <v>33636</v>
       </c>
       <c r="M11" s="1">
-        <f>L11*1.11</f>
+        <f t="shared" si="1"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N11" t="s">
@@ -1948,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1983,11 +1989,11 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <f>H12*I12</f>
+        <f t="shared" si="0"/>
         <v>25227</v>
       </c>
       <c r="M12" s="1">
-        <f>L12*1.11</f>
+        <f t="shared" si="1"/>
         <v>28001.97</v>
       </c>
       <c r="N12" t="s">
@@ -1997,7 +2003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2032,11 +2038,11 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <f>H13*I13</f>
+        <f t="shared" si="0"/>
         <v>33636</v>
       </c>
       <c r="M13" s="1">
-        <f>L13*1.11</f>
+        <f t="shared" si="1"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N13" t="s">
@@ -2046,7 +2052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -2081,11 +2087,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <f>H14*I14</f>
+        <f t="shared" si="0"/>
         <v>31780</v>
       </c>
       <c r="M14" s="1">
-        <f>L14*1.11</f>
+        <f t="shared" si="1"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N14" t="s">
@@ -2095,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2130,11 +2136,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <f>H15*I15</f>
+        <f t="shared" si="0"/>
         <v>31780</v>
       </c>
       <c r="M15" s="1">
-        <f>L15*1.11</f>
+        <f t="shared" si="1"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N15" t="s">
@@ -2144,7 +2150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -2179,11 +2185,11 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <f>H16*I16</f>
+        <f t="shared" si="0"/>
         <v>22705</v>
       </c>
       <c r="M16" s="1">
-        <f>L16*1.11</f>
+        <f t="shared" si="1"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N16" t="s">
@@ -2193,7 +2199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2228,11 +2234,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <f>H17*I17</f>
+        <f t="shared" si="0"/>
         <v>95046</v>
       </c>
       <c r="M17" s="1">
-        <f>L17*1.11</f>
+        <f t="shared" si="1"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N17" t="s">
@@ -2242,7 +2248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2277,11 +2283,11 @@
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <f>H18*I18</f>
+        <f t="shared" si="0"/>
         <v>60540</v>
       </c>
       <c r="M18" s="1">
-        <f>L18*1.11</f>
+        <f t="shared" si="1"/>
         <v>67199.400000000009</v>
       </c>
       <c r="N18" t="s">
@@ -2291,7 +2297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -2326,11 +2332,11 @@
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f>H19*I19</f>
+        <f t="shared" si="0"/>
         <v>60540</v>
       </c>
       <c r="M19" s="1">
-        <f>L19*1.11</f>
+        <f t="shared" si="1"/>
         <v>67199.400000000009</v>
       </c>
       <c r="N19" t="s">
@@ -2340,7 +2346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2375,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <f>H20*I20</f>
+        <f t="shared" si="0"/>
         <v>30270</v>
       </c>
       <c r="M20" s="1">
-        <f>L20*1.11</f>
+        <f t="shared" si="1"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N20" t="s">
@@ -2389,7 +2395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2424,11 +2430,11 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f>H21*I21</f>
+        <f t="shared" si="0"/>
         <v>47523</v>
       </c>
       <c r="M21" s="1">
-        <f>L21*1.11</f>
+        <f t="shared" si="1"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N21" t="s">
@@ -2438,7 +2444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -2473,11 +2479,11 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f>H22*I22</f>
+        <f t="shared" si="0"/>
         <v>30270</v>
       </c>
       <c r="M22" s="1">
-        <f>L22*1.11</f>
+        <f t="shared" si="1"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N22" t="s">
@@ -2487,7 +2493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -2522,11 +2528,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <f>H23*I23</f>
+        <f t="shared" si="0"/>
         <v>31780</v>
       </c>
       <c r="M23" s="1">
-        <f>L23*1.11</f>
+        <f t="shared" si="1"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N23" t="s">
@@ -2536,7 +2542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -2571,11 +2577,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <f>H24*I24</f>
+        <f t="shared" si="0"/>
         <v>47523</v>
       </c>
       <c r="M24" s="1">
-        <f>L24*1.11</f>
+        <f t="shared" si="1"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N24" t="s">
@@ -2585,7 +2591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -2620,11 +2626,11 @@
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f>H25*I25</f>
+        <f t="shared" si="0"/>
         <v>23540</v>
       </c>
       <c r="M25" s="1">
-        <f>L25*1.11</f>
+        <f t="shared" si="1"/>
         <v>26129.4</v>
       </c>
       <c r="N25" t="s">
@@ -2634,7 +2640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -2669,11 +2675,11 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f>H26*I26</f>
+        <f t="shared" si="0"/>
         <v>23540</v>
       </c>
       <c r="M26" s="1">
-        <f>L26*1.11</f>
+        <f t="shared" si="1"/>
         <v>26129.4</v>
       </c>
       <c r="N26" t="s">
@@ -2683,7 +2689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -2718,11 +2724,11 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <f>H27*I27</f>
+        <f t="shared" si="0"/>
         <v>23540</v>
       </c>
       <c r="M27" s="1">
-        <f>L27*1.11</f>
+        <f t="shared" si="1"/>
         <v>26129.4</v>
       </c>
       <c r="N27" t="s">
@@ -2732,7 +2738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -2767,11 +2773,11 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <f>H28*I28</f>
+        <f t="shared" si="0"/>
         <v>37840</v>
       </c>
       <c r="M28" s="1">
-        <f>L28*1.11</f>
+        <f t="shared" si="1"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N28" t="s">
@@ -2781,7 +2787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
@@ -2816,11 +2822,11 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f>H29*I29</f>
+        <f t="shared" si="0"/>
         <v>37840</v>
       </c>
       <c r="M29" s="1">
-        <f>L29*1.11</f>
+        <f t="shared" si="1"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N29" t="s">
@@ -2830,7 +2836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
@@ -2865,11 +2871,11 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <f>H30*I30</f>
+        <f t="shared" si="0"/>
         <v>37840</v>
       </c>
       <c r="M30" s="1">
-        <f>L30*1.11</f>
+        <f t="shared" si="1"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N30" t="s">
@@ -2879,7 +2885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -2914,11 +2920,11 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <f>H31*I31</f>
+        <f t="shared" si="0"/>
         <v>14015</v>
       </c>
       <c r="M31" s="1">
-        <f>L31*1.11</f>
+        <f t="shared" si="1"/>
         <v>15556.650000000001</v>
       </c>
       <c r="N31" t="s">
@@ -2928,7 +2934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -2963,11 +2969,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <f>H32*I32</f>
+        <f t="shared" si="0"/>
         <v>14015</v>
       </c>
       <c r="M32" s="1">
-        <f>L32*1.11</f>
+        <f t="shared" si="1"/>
         <v>15556.650000000001</v>
       </c>
       <c r="N32" t="s">
@@ -2977,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
@@ -3012,11 +3018,11 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <f>H33*I33</f>
+        <f t="shared" si="0"/>
         <v>14015</v>
       </c>
       <c r="M33" s="1">
-        <f>L33*1.11</f>
+        <f t="shared" si="1"/>
         <v>15556.650000000001</v>
       </c>
       <c r="N33" t="s">
@@ -3026,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -3061,11 +3067,11 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <f>H34*I34</f>
+        <f t="shared" si="0"/>
         <v>14015</v>
       </c>
       <c r="M34" s="1">
-        <f>L34*1.11</f>
+        <f t="shared" si="1"/>
         <v>15556.650000000001</v>
       </c>
       <c r="N34" t="s">
@@ -3075,7 +3081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -3110,11 +3116,11 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f>H35*I35</f>
+        <f t="shared" si="0"/>
         <v>190092</v>
       </c>
       <c r="M35" s="1">
-        <f>L35*1.11</f>
+        <f t="shared" si="1"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N35" t="s">
@@ -3124,7 +3130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -3159,11 +3165,11 @@
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <f>H36*I36</f>
+        <f t="shared" si="0"/>
         <v>190092</v>
       </c>
       <c r="M36" s="1">
-        <f>L36*1.11</f>
+        <f t="shared" si="1"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N36" t="s">
@@ -3173,7 +3179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -3208,11 +3214,11 @@
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <f>H37*I37</f>
+        <f t="shared" si="0"/>
         <v>127120</v>
       </c>
       <c r="M37" s="1">
-        <f>L37*1.11</f>
+        <f t="shared" si="1"/>
         <v>141103.20000000001</v>
       </c>
       <c r="N37" t="s">
@@ -3222,7 +3228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -3257,11 +3263,11 @@
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <f>H38*I38</f>
+        <f t="shared" si="0"/>
         <v>127120</v>
       </c>
       <c r="M38" s="1">
-        <f>L38*1.11</f>
+        <f t="shared" si="1"/>
         <v>141103.20000000001</v>
       </c>
       <c r="N38" t="s">
@@ -3271,7 +3277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -3306,11 +3312,11 @@
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <f>H39*I39</f>
+        <f t="shared" si="0"/>
         <v>47523</v>
       </c>
       <c r="M39" s="1">
-        <f>L39*1.11</f>
+        <f t="shared" si="1"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N39" t="s">
@@ -3320,7 +3326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
@@ -3355,11 +3361,11 @@
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f>H40*I40</f>
+        <f t="shared" si="0"/>
         <v>47523</v>
       </c>
       <c r="M40" s="1">
-        <f>L40*1.11</f>
+        <f t="shared" si="1"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N40" t="s">
@@ -3369,7 +3375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
@@ -3404,11 +3410,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <f>H41*I41</f>
+        <f t="shared" si="0"/>
         <v>47523</v>
       </c>
       <c r="M41" s="1">
-        <f>L41*1.11</f>
+        <f t="shared" si="1"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N41" t="s">
@@ -3418,7 +3424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>33</v>
       </c>
@@ -3453,11 +3459,11 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <f>H42*I42</f>
+        <f t="shared" si="0"/>
         <v>11770</v>
       </c>
       <c r="M42" s="1">
-        <f>L42*1.11</f>
+        <f t="shared" si="1"/>
         <v>13064.7</v>
       </c>
       <c r="N42" t="s">
@@ -3467,7 +3473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>33</v>
       </c>
@@ -3502,11 +3508,11 @@
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <f>H43*I43</f>
+        <f t="shared" si="0"/>
         <v>11770</v>
       </c>
       <c r="M43" s="1">
-        <f>L43*1.11</f>
+        <f t="shared" si="1"/>
         <v>13064.7</v>
       </c>
       <c r="N43" t="s">
@@ -3516,7 +3522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
@@ -3551,11 +3557,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <f>H44*I44</f>
+        <f t="shared" si="0"/>
         <v>11770</v>
       </c>
       <c r="M44" s="1">
-        <f>L44*1.11</f>
+        <f t="shared" si="1"/>
         <v>13064.7</v>
       </c>
       <c r="N44" t="s">
@@ -3565,7 +3571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
@@ -3600,11 +3606,11 @@
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <f>H45*I45</f>
+        <f t="shared" si="0"/>
         <v>11770</v>
       </c>
       <c r="M45" s="1">
-        <f>L45*1.11</f>
+        <f t="shared" si="1"/>
         <v>13064.7</v>
       </c>
       <c r="N45" t="s">
@@ -3614,7 +3620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -3649,11 +3655,11 @@
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <f>H46*I46</f>
+        <f t="shared" si="0"/>
         <v>95046</v>
       </c>
       <c r="M46" s="1">
-        <f>L46*1.11</f>
+        <f t="shared" si="1"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N46" t="s">
@@ -3663,7 +3669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>35</v>
       </c>
@@ -3698,11 +3704,11 @@
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f>H47*I47</f>
+        <f t="shared" si="0"/>
         <v>33636</v>
       </c>
       <c r="M47" s="1">
-        <f>L47*1.11</f>
+        <f t="shared" si="1"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N47" t="s">
@@ -3712,7 +3718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>35</v>
       </c>
@@ -3747,11 +3753,11 @@
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <f>H48*I48</f>
+        <f t="shared" si="0"/>
         <v>33636</v>
       </c>
       <c r="M48" s="1">
-        <f>L48*1.11</f>
+        <f t="shared" si="1"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N48" t="s">
@@ -3761,7 +3767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>36</v>
       </c>
@@ -3796,11 +3802,11 @@
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <f>H49*I49</f>
+        <f t="shared" si="0"/>
         <v>14120</v>
       </c>
       <c r="M49" s="1">
-        <f>L49*1.11</f>
+        <f t="shared" si="1"/>
         <v>15673.2</v>
       </c>
       <c r="N49" t="s">
@@ -3810,7 +3816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>36</v>
       </c>
@@ -3845,11 +3851,11 @@
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <f>H50*I50</f>
+        <f t="shared" si="0"/>
         <v>47523</v>
       </c>
       <c r="M50" s="1">
-        <f>L50*1.11</f>
+        <f t="shared" si="1"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N50" t="s">
@@ -3859,7 +3865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>36</v>
       </c>
@@ -3894,11 +3900,11 @@
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <f>H51*I51</f>
+        <f t="shared" si="0"/>
         <v>22705</v>
       </c>
       <c r="M51" s="1">
-        <f>L51*1.11</f>
+        <f t="shared" si="1"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N51" t="s">
@@ -3908,7 +3914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>37</v>
       </c>
@@ -3943,11 +3949,11 @@
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <f>H52*I52</f>
+        <f t="shared" si="0"/>
         <v>14120</v>
       </c>
       <c r="M52" s="1">
-        <f>L52*1.11</f>
+        <f t="shared" si="1"/>
         <v>15673.2</v>
       </c>
       <c r="N52" t="s">
@@ -3957,7 +3963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>37</v>
       </c>
@@ -3992,11 +3998,11 @@
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <f>H53*I53</f>
+        <f t="shared" si="0"/>
         <v>95046</v>
       </c>
       <c r="M53" s="1">
-        <f>L53*1.11</f>
+        <f t="shared" si="1"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N53" t="s">
@@ -4006,7 +4012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>37</v>
       </c>
@@ -4041,11 +4047,11 @@
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f>H54*I54</f>
+        <f t="shared" si="0"/>
         <v>13620</v>
       </c>
       <c r="M54" s="1">
-        <f>L54*1.11</f>
+        <f t="shared" si="1"/>
         <v>15118.2</v>
       </c>
       <c r="N54" t="s">
@@ -4055,7 +4061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>37</v>
       </c>
@@ -4090,11 +4096,11 @@
         <v>0</v>
       </c>
       <c r="L55" s="1">
-        <f>H55*I55</f>
+        <f t="shared" si="0"/>
         <v>13620</v>
       </c>
       <c r="M55" s="1">
-        <f>L55*1.11</f>
+        <f t="shared" si="1"/>
         <v>15118.2</v>
       </c>
       <c r="N55" t="s">
@@ -4104,7 +4110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>37</v>
       </c>
@@ -4139,11 +4145,11 @@
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <f>H56*I56</f>
+        <f t="shared" si="0"/>
         <v>23540</v>
       </c>
       <c r="M56" s="1">
-        <f>L56*1.11</f>
+        <f t="shared" si="1"/>
         <v>26129.4</v>
       </c>
       <c r="N56" t="s">
@@ -4153,7 +4159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>37</v>
       </c>
@@ -4188,11 +4194,11 @@
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <f>H57*I57</f>
+        <f t="shared" si="0"/>
         <v>16818</v>
       </c>
       <c r="M57" s="1">
-        <f>L57*1.11</f>
+        <f t="shared" si="1"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N57" t="s">
@@ -4202,7 +4208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>38</v>
       </c>
@@ -4237,11 +4243,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <f>H58*I58</f>
+        <f t="shared" si="0"/>
         <v>30270</v>
       </c>
       <c r="M58" s="1">
-        <f>L58*1.11</f>
+        <f t="shared" si="1"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N58" t="s">
@@ -4251,7 +4257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>38</v>
       </c>
@@ -4286,11 +4292,11 @@
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <f>H59*I59</f>
+        <f t="shared" si="0"/>
         <v>47523</v>
       </c>
       <c r="M59" s="1">
-        <f>L59*1.11</f>
+        <f t="shared" si="1"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N59" t="s">
@@ -4300,7 +4306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>39</v>
       </c>
@@ -4335,11 +4341,11 @@
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f>H60*I60</f>
+        <f t="shared" si="0"/>
         <v>31780</v>
       </c>
       <c r="M60" s="1">
-        <f>L60*1.11</f>
+        <f t="shared" si="1"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N60" t="s">
@@ -4349,7 +4355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>39</v>
       </c>
@@ -4384,11 +4390,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="1">
-        <f>H61*I61</f>
+        <f t="shared" si="0"/>
         <v>31780</v>
       </c>
       <c r="M61" s="1">
-        <f>L61*1.11</f>
+        <f t="shared" si="1"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N61" t="s">
@@ -4398,7 +4404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>40</v>
       </c>
@@ -4433,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <f>H62*I62</f>
+        <f t="shared" si="0"/>
         <v>30270</v>
       </c>
       <c r="M62" s="1">
-        <f>L62*1.11</f>
+        <f t="shared" si="1"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N62" t="s">
@@ -4447,7 +4453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>40</v>
       </c>
@@ -4482,11 +4488,11 @@
         <v>0</v>
       </c>
       <c r="L63" s="1">
-        <f>H63*I63</f>
+        <f t="shared" si="0"/>
         <v>31780</v>
       </c>
       <c r="M63" s="1">
-        <f>L63*1.11</f>
+        <f t="shared" si="1"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N63" t="s">
@@ -4496,7 +4502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>40</v>
       </c>
@@ -4531,11 +4537,11 @@
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <f>H64*I64</f>
+        <f t="shared" si="0"/>
         <v>13620</v>
       </c>
       <c r="M64" s="1">
-        <f>L64*1.11</f>
+        <f t="shared" si="1"/>
         <v>15118.2</v>
       </c>
       <c r="N64" t="s">
@@ -4545,7 +4551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>40</v>
       </c>
@@ -4580,11 +4586,11 @@
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f>H65*I65</f>
+        <f t="shared" si="0"/>
         <v>22705</v>
       </c>
       <c r="M65" s="1">
-        <f>L65*1.11</f>
+        <f t="shared" si="1"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N65" t="s">
@@ -4594,7 +4600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>41</v>
       </c>
@@ -4629,11 +4635,11 @@
         <v>0</v>
       </c>
       <c r="L66" s="1">
-        <f>H66*I66</f>
+        <f t="shared" ref="L66:L129" si="2">H66*I66</f>
         <v>31780</v>
       </c>
       <c r="M66" s="1">
-        <f>L66*1.11</f>
+        <f t="shared" ref="M66:M129" si="3">L66*1.11</f>
         <v>35275.800000000003</v>
       </c>
       <c r="N66" t="s">
@@ -4643,7 +4649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>41</v>
       </c>
@@ -4678,11 +4684,11 @@
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <f>H67*I67</f>
+        <f t="shared" si="2"/>
         <v>31780</v>
       </c>
       <c r="M67" s="1">
-        <f>L67*1.11</f>
+        <f t="shared" si="3"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N67" t="s">
@@ -4692,7 +4698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -4727,11 +4733,11 @@
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <f>H68*I68</f>
+        <f t="shared" si="2"/>
         <v>33636</v>
       </c>
       <c r="M68" s="1">
-        <f>L68*1.11</f>
+        <f t="shared" si="3"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N68" t="s">
@@ -4741,7 +4747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>41</v>
       </c>
@@ -4776,11 +4782,11 @@
         <v>0</v>
       </c>
       <c r="L69" s="1">
-        <f>H69*I69</f>
+        <f t="shared" si="2"/>
         <v>33636</v>
       </c>
       <c r="M69" s="1">
-        <f>L69*1.11</f>
+        <f t="shared" si="3"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N69" t="s">
@@ -4790,7 +4796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>41</v>
       </c>
@@ -4825,11 +4831,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="1">
-        <f>H70*I70</f>
+        <f t="shared" si="2"/>
         <v>33636</v>
       </c>
       <c r="M70" s="1">
-        <f>L70*1.11</f>
+        <f t="shared" si="3"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N70" t="s">
@@ -4839,7 +4845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>41</v>
       </c>
@@ -4874,11 +4880,11 @@
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <f>H71*I71</f>
+        <f t="shared" si="2"/>
         <v>33636</v>
       </c>
       <c r="M71" s="1">
-        <f>L71*1.11</f>
+        <f t="shared" si="3"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N71" t="s">
@@ -4888,7 +4894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>42</v>
       </c>
@@ -4923,11 +4929,11 @@
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <f>H72*I72</f>
+        <f t="shared" si="2"/>
         <v>18162</v>
       </c>
       <c r="M72" s="1">
-        <f>L72*1.11</f>
+        <f t="shared" si="3"/>
         <v>20159.820000000003</v>
       </c>
       <c r="N72" t="s">
@@ -4937,7 +4943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>42</v>
       </c>
@@ -4972,11 +4978,11 @@
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <f>H73*I73</f>
+        <f t="shared" si="2"/>
         <v>47523</v>
       </c>
       <c r="M73" s="1">
-        <f>L73*1.11</f>
+        <f t="shared" si="3"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N73" t="s">
@@ -4986,7 +4992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>42</v>
       </c>
@@ -5021,11 +5027,11 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f>H74*I74</f>
+        <f t="shared" si="2"/>
         <v>11770</v>
       </c>
       <c r="M74" s="1">
-        <f>L74*1.11</f>
+        <f t="shared" si="3"/>
         <v>13064.7</v>
       </c>
       <c r="N74" t="s">
@@ -5035,7 +5041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>42</v>
       </c>
@@ -5070,11 +5076,11 @@
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <f>H75*I75</f>
+        <f t="shared" si="2"/>
         <v>11770</v>
       </c>
       <c r="M75" s="1">
-        <f>L75*1.11</f>
+        <f t="shared" si="3"/>
         <v>13064.7</v>
       </c>
       <c r="N75" t="s">
@@ -5084,7 +5090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>42</v>
       </c>
@@ -5119,11 +5125,11 @@
         <v>0</v>
       </c>
       <c r="L76" s="1">
-        <f>H76*I76</f>
+        <f t="shared" si="2"/>
         <v>11770</v>
       </c>
       <c r="M76" s="1">
-        <f>L76*1.11</f>
+        <f t="shared" si="3"/>
         <v>13064.7</v>
       </c>
       <c r="N76" t="s">
@@ -5133,7 +5139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>43</v>
       </c>
@@ -5168,11 +5174,11 @@
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <f>H77*I77</f>
+        <f t="shared" si="2"/>
         <v>47523</v>
       </c>
       <c r="M77" s="1">
-        <f>L77*1.11</f>
+        <f t="shared" si="3"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N77" t="s">
@@ -5182,7 +5188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>43</v>
       </c>
@@ -5217,11 +5223,11 @@
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <f>H78*I78</f>
+        <f t="shared" si="2"/>
         <v>23540</v>
       </c>
       <c r="M78" s="1">
-        <f>L78*1.11</f>
+        <f t="shared" si="3"/>
         <v>26129.4</v>
       </c>
       <c r="N78" t="s">
@@ -5231,7 +5237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>44</v>
       </c>
@@ -5266,11 +5272,11 @@
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <f>H79*I79</f>
+        <f t="shared" si="2"/>
         <v>30270</v>
       </c>
       <c r="M79" s="1">
-        <f>L79*1.11</f>
+        <f t="shared" si="3"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N79" t="s">
@@ -5280,7 +5286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>44</v>
       </c>
@@ -5315,11 +5321,11 @@
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <f>H80*I80</f>
+        <f t="shared" si="2"/>
         <v>30270</v>
       </c>
       <c r="M80" s="1">
-        <f>L80*1.11</f>
+        <f t="shared" si="3"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N80" t="s">
@@ -5329,7 +5335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>44</v>
       </c>
@@ -5364,11 +5370,11 @@
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <f>H81*I81</f>
+        <f t="shared" si="2"/>
         <v>47523</v>
       </c>
       <c r="M81" s="1">
-        <f>L81*1.11</f>
+        <f t="shared" si="3"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N81" t="s">
@@ -5378,7 +5384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>45</v>
       </c>
@@ -5413,11 +5419,11 @@
         <v>0</v>
       </c>
       <c r="L82" s="1">
-        <f>H82*I82</f>
+        <f t="shared" si="2"/>
         <v>33636</v>
       </c>
       <c r="M82" s="1">
-        <f>L82*1.11</f>
+        <f t="shared" si="3"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N82" t="s">
@@ -5427,7 +5433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>45</v>
       </c>
@@ -5462,11 +5468,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="1">
-        <f>H83*I83</f>
+        <f t="shared" si="2"/>
         <v>33636</v>
       </c>
       <c r="M83" s="1">
-        <f>L83*1.11</f>
+        <f t="shared" si="3"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N83" t="s">
@@ -5476,7 +5482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>45</v>
       </c>
@@ -5511,11 +5517,11 @@
         <v>0</v>
       </c>
       <c r="L84" s="1">
-        <f>H84*I84</f>
+        <f t="shared" si="2"/>
         <v>33636</v>
       </c>
       <c r="M84" s="1">
-        <f>L84*1.11</f>
+        <f t="shared" si="3"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N84" t="s">
@@ -5525,7 +5531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>45</v>
       </c>
@@ -5560,11 +5566,11 @@
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <f>H85*I85</f>
+        <f t="shared" si="2"/>
         <v>33636</v>
       </c>
       <c r="M85" s="1">
-        <f>L85*1.11</f>
+        <f t="shared" si="3"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N85" t="s">
@@ -5574,7 +5580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>46</v>
       </c>
@@ -5609,11 +5615,11 @@
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <f>H86*I86</f>
+        <f t="shared" si="2"/>
         <v>95046</v>
       </c>
       <c r="M86" s="1">
-        <f>L86*1.11</f>
+        <f t="shared" si="3"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N86" t="s">
@@ -5623,7 +5629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>47</v>
       </c>
@@ -5658,11 +5664,11 @@
         <v>0</v>
       </c>
       <c r="L87" s="1">
-        <f>H87*I87</f>
+        <f t="shared" si="2"/>
         <v>127120</v>
       </c>
       <c r="M87" s="1">
-        <f>L87*1.11</f>
+        <f t="shared" si="3"/>
         <v>141103.20000000001</v>
       </c>
       <c r="N87" t="s">
@@ -5672,7 +5678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>48</v>
       </c>
@@ -5707,11 +5713,11 @@
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <f>H88*I88</f>
+        <f t="shared" si="2"/>
         <v>47523</v>
       </c>
       <c r="M88" s="1">
-        <f>L88*1.11</f>
+        <f t="shared" si="3"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N88" t="s">
@@ -5721,7 +5727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>48</v>
       </c>
@@ -5756,11 +5762,11 @@
         <v>0</v>
       </c>
       <c r="L89" s="1">
-        <f>H89*I89</f>
+        <f t="shared" si="2"/>
         <v>31780</v>
       </c>
       <c r="M89" s="1">
-        <f>L89*1.11</f>
+        <f t="shared" si="3"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N89" t="s">
@@ -5770,7 +5776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
@@ -5805,11 +5811,11 @@
         <v>0</v>
       </c>
       <c r="L90" s="1">
-        <f>H90*I90</f>
+        <f t="shared" si="2"/>
         <v>16818</v>
       </c>
       <c r="M90" s="1">
-        <f>L90*1.11</f>
+        <f t="shared" si="3"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N90" t="s">
@@ -5819,7 +5825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>48</v>
       </c>
@@ -5854,11 +5860,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="1">
-        <f>H91*I91</f>
+        <f t="shared" si="2"/>
         <v>16818</v>
       </c>
       <c r="M91" s="1">
-        <f>L91*1.11</f>
+        <f t="shared" si="3"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N91" t="s">
@@ -5868,7 +5874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>48</v>
       </c>
@@ -5903,11 +5909,11 @@
         <v>0</v>
       </c>
       <c r="L92" s="1">
-        <f>H92*I92</f>
+        <f t="shared" si="2"/>
         <v>16818</v>
       </c>
       <c r="M92" s="1">
-        <f>L92*1.11</f>
+        <f t="shared" si="3"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N92" t="s">
@@ -5917,7 +5923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>48</v>
       </c>
@@ -5952,11 +5958,11 @@
         <v>0</v>
       </c>
       <c r="L93" s="1">
-        <f>H93*I93</f>
+        <f t="shared" si="2"/>
         <v>16818</v>
       </c>
       <c r="M93" s="1">
-        <f>L93*1.11</f>
+        <f t="shared" si="3"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N93" t="s">
@@ -5966,7 +5972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>49</v>
       </c>
@@ -6001,11 +6007,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="1">
-        <f>H94*I94</f>
+        <f t="shared" si="2"/>
         <v>14120</v>
       </c>
       <c r="M94" s="1">
-        <f>L94*1.11</f>
+        <f t="shared" si="3"/>
         <v>15673.2</v>
       </c>
       <c r="N94" t="s">
@@ -6015,7 +6021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>49</v>
       </c>
@@ -6050,11 +6056,11 @@
         <v>0</v>
       </c>
       <c r="L95" s="1">
-        <f>H95*I95</f>
+        <f t="shared" si="2"/>
         <v>18162</v>
       </c>
       <c r="M95" s="1">
-        <f>L95*1.11</f>
+        <f t="shared" si="3"/>
         <v>20159.820000000003</v>
       </c>
       <c r="N95" t="s">
@@ -6064,7 +6070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>49</v>
       </c>
@@ -6099,11 +6105,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="1">
-        <f>H96*I96</f>
+        <f t="shared" si="2"/>
         <v>18162</v>
       </c>
       <c r="M96" s="1">
-        <f>L96*1.11</f>
+        <f t="shared" si="3"/>
         <v>20159.820000000003</v>
       </c>
       <c r="N96" t="s">
@@ -6113,7 +6119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>49</v>
       </c>
@@ -6148,11 +6154,11 @@
         <v>0</v>
       </c>
       <c r="L97" s="1">
-        <f>H97*I97</f>
+        <f t="shared" si="2"/>
         <v>8409</v>
       </c>
       <c r="M97" s="1">
-        <f>L97*1.11</f>
+        <f t="shared" si="3"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N97" t="s">
@@ -6162,7 +6168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>49</v>
       </c>
@@ -6197,11 +6203,11 @@
         <v>0</v>
       </c>
       <c r="L98" s="1">
-        <f>H98*I98</f>
+        <f t="shared" si="2"/>
         <v>8409</v>
       </c>
       <c r="M98" s="1">
-        <f>L98*1.11</f>
+        <f t="shared" si="3"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N98" t="s">
@@ -6211,7 +6217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>49</v>
       </c>
@@ -6246,11 +6252,11 @@
         <v>0</v>
       </c>
       <c r="L99" s="1">
-        <f>H99*I99</f>
+        <f t="shared" si="2"/>
         <v>8409</v>
       </c>
       <c r="M99" s="1">
-        <f>L99*1.11</f>
+        <f t="shared" si="3"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N99" t="s">
@@ -6260,7 +6266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>49</v>
       </c>
@@ -6295,11 +6301,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="1">
-        <f>H100*I100</f>
+        <f t="shared" si="2"/>
         <v>8409</v>
       </c>
       <c r="M100" s="1">
-        <f>L100*1.11</f>
+        <f t="shared" si="3"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N100" t="s">
@@ -6309,7 +6315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>50</v>
       </c>
@@ -6344,11 +6350,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="1">
-        <f>H101*I101</f>
+        <f t="shared" si="2"/>
         <v>14120</v>
       </c>
       <c r="M101" s="1">
-        <f>L101*1.11</f>
+        <f t="shared" si="3"/>
         <v>15673.2</v>
       </c>
       <c r="N101" t="s">
@@ -6358,7 +6364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -6393,11 +6399,11 @@
         <v>0</v>
       </c>
       <c r="L102" s="1">
-        <f>H102*I102</f>
+        <f t="shared" si="2"/>
         <v>36666</v>
       </c>
       <c r="M102" s="1">
-        <f>L102*1.11</f>
+        <f t="shared" si="3"/>
         <v>40699.26</v>
       </c>
       <c r="N102" t="s">
@@ -6407,7 +6413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>50</v>
       </c>
@@ -6442,11 +6448,11 @@
         <v>0</v>
       </c>
       <c r="L103" s="1">
-        <f>H103*I103</f>
+        <f t="shared" si="2"/>
         <v>47523</v>
       </c>
       <c r="M103" s="1">
-        <f>L103*1.11</f>
+        <f t="shared" si="3"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N103" t="s">
@@ -6456,7 +6462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>50</v>
       </c>
@@ -6491,11 +6497,11 @@
         <v>0</v>
       </c>
       <c r="L104" s="1">
-        <f>H104*I104</f>
+        <f t="shared" si="2"/>
         <v>23540</v>
       </c>
       <c r="M104" s="1">
-        <f>L104*1.11</f>
+        <f t="shared" si="3"/>
         <v>26129.4</v>
       </c>
       <c r="N104" t="s">
@@ -6505,7 +6511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>51</v>
       </c>
@@ -6540,11 +6546,11 @@
         <v>0</v>
       </c>
       <c r="L105" s="1">
-        <f>H105*I105</f>
+        <f t="shared" si="2"/>
         <v>31780</v>
       </c>
       <c r="M105" s="1">
-        <f>L105*1.11</f>
+        <f t="shared" si="3"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N105" t="s">
@@ -6554,7 +6560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>51</v>
       </c>
@@ -6589,11 +6595,11 @@
         <v>0</v>
       </c>
       <c r="L106" s="1">
-        <f>H106*I106</f>
+        <f t="shared" si="2"/>
         <v>31780</v>
       </c>
       <c r="M106" s="1">
-        <f>L106*1.11</f>
+        <f t="shared" si="3"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N106" t="s">
@@ -6603,7 +6609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>52</v>
       </c>
@@ -6638,11 +6644,11 @@
         <v>0</v>
       </c>
       <c r="L107" s="1">
-        <f>H107*I107</f>
+        <f t="shared" si="2"/>
         <v>95046</v>
       </c>
       <c r="M107" s="1">
-        <f>L107*1.11</f>
+        <f t="shared" si="3"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N107" t="s">
@@ -6652,7 +6658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>53</v>
       </c>
@@ -6687,11 +6693,11 @@
         <v>0</v>
       </c>
       <c r="L108" s="1">
-        <f>H108*I108</f>
+        <f t="shared" si="2"/>
         <v>14120</v>
       </c>
       <c r="M108" s="1">
-        <f>L108*1.11</f>
+        <f t="shared" si="3"/>
         <v>15673.2</v>
       </c>
       <c r="N108" t="s">
@@ -6701,7 +6707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>53</v>
       </c>
@@ -6736,11 +6742,11 @@
         <v>0</v>
       </c>
       <c r="L109" s="1">
-        <f>H109*I109</f>
+        <f t="shared" si="2"/>
         <v>22705</v>
       </c>
       <c r="M109" s="1">
-        <f>L109*1.11</f>
+        <f t="shared" si="3"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N109" t="s">
@@ -6750,7 +6756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>54</v>
       </c>
@@ -6785,11 +6791,11 @@
         <v>0</v>
       </c>
       <c r="L110" s="1">
-        <f>H110*I110</f>
+        <f t="shared" si="2"/>
         <v>37840</v>
       </c>
       <c r="M110" s="1">
-        <f>L110*1.11</f>
+        <f t="shared" si="3"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N110" t="s">
@@ -6799,7 +6805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>55</v>
       </c>
@@ -6834,11 +6840,11 @@
         <v>0</v>
       </c>
       <c r="L111" s="1">
-        <f>H111*I111</f>
+        <f t="shared" si="2"/>
         <v>30270</v>
       </c>
       <c r="M111" s="1">
-        <f>L111*1.11</f>
+        <f t="shared" si="3"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N111" t="s">
@@ -6848,7 +6854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>55</v>
       </c>
@@ -6883,11 +6889,11 @@
         <v>0</v>
       </c>
       <c r="L112" s="1">
-        <f>H112*I112</f>
+        <f t="shared" si="2"/>
         <v>30270</v>
       </c>
       <c r="M112" s="1">
-        <f>L112*1.11</f>
+        <f t="shared" si="3"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N112" t="s">
@@ -6897,7 +6903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>55</v>
       </c>
@@ -6932,11 +6938,11 @@
         <v>0</v>
       </c>
       <c r="L113" s="1">
-        <f>H113*I113</f>
+        <f t="shared" si="2"/>
         <v>47523</v>
       </c>
       <c r="M113" s="1">
-        <f>L113*1.11</f>
+        <f t="shared" si="3"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N113" t="s">
@@ -6946,7 +6952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>55</v>
       </c>
@@ -6981,11 +6987,11 @@
         <v>0</v>
       </c>
       <c r="L114" s="1">
-        <f>H114*I114</f>
+        <f t="shared" si="2"/>
         <v>31780</v>
       </c>
       <c r="M114" s="1">
-        <f>L114*1.11</f>
+        <f t="shared" si="3"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N114" t="s">
@@ -6995,7 +7001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>55</v>
       </c>
@@ -7030,11 +7036,11 @@
         <v>0</v>
       </c>
       <c r="L115" s="1">
-        <f>H115*I115</f>
+        <f t="shared" si="2"/>
         <v>31780</v>
       </c>
       <c r="M115" s="1">
-        <f>L115*1.11</f>
+        <f t="shared" si="3"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N115" t="s">
@@ -7044,7 +7050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>56</v>
       </c>
@@ -7079,11 +7085,11 @@
         <v>0</v>
       </c>
       <c r="L116" s="1">
-        <f>H116*I116</f>
+        <f t="shared" si="2"/>
         <v>18162</v>
       </c>
       <c r="M116" s="1">
-        <f>L116*1.11</f>
+        <f t="shared" si="3"/>
         <v>20159.820000000003</v>
       </c>
       <c r="N116" t="s">
@@ -7093,7 +7099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>56</v>
       </c>
@@ -7128,11 +7134,11 @@
         <v>0</v>
       </c>
       <c r="L117" s="1">
-        <f>H117*I117</f>
+        <f t="shared" si="2"/>
         <v>12108</v>
       </c>
       <c r="M117" s="1">
-        <f>L117*1.11</f>
+        <f t="shared" si="3"/>
         <v>13439.880000000001</v>
       </c>
       <c r="N117" t="s">
@@ -7142,7 +7148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>56</v>
       </c>
@@ -7177,11 +7183,11 @@
         <v>0</v>
       </c>
       <c r="L118" s="1">
-        <f>H118*I118</f>
+        <f t="shared" si="2"/>
         <v>47523</v>
       </c>
       <c r="M118" s="1">
-        <f>L118*1.11</f>
+        <f t="shared" si="3"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N118" t="s">
@@ -7191,7 +7197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>56</v>
       </c>
@@ -7226,11 +7232,11 @@
         <v>0</v>
       </c>
       <c r="L119" s="1">
-        <f>H119*I119</f>
+        <f t="shared" si="2"/>
         <v>13620</v>
       </c>
       <c r="M119" s="1">
-        <f>L119*1.11</f>
+        <f t="shared" si="3"/>
         <v>15118.2</v>
       </c>
       <c r="N119" t="s">
@@ -7240,7 +7246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>56</v>
       </c>
@@ -7275,11 +7281,11 @@
         <v>0</v>
       </c>
       <c r="L120" s="1">
-        <f>H120*I120</f>
+        <f t="shared" si="2"/>
         <v>18160</v>
       </c>
       <c r="M120" s="1">
-        <f>L120*1.11</f>
+        <f t="shared" si="3"/>
         <v>20157.600000000002</v>
       </c>
       <c r="N120" t="s">
@@ -7289,7 +7295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>56</v>
       </c>
@@ -7324,11 +7330,11 @@
         <v>0</v>
       </c>
       <c r="L121" s="1">
-        <f>H121*I121</f>
+        <f t="shared" si="2"/>
         <v>11770</v>
       </c>
       <c r="M121" s="1">
-        <f>L121*1.11</f>
+        <f t="shared" si="3"/>
         <v>13064.7</v>
       </c>
       <c r="N121" t="s">
@@ -7338,7 +7344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>56</v>
       </c>
@@ -7373,11 +7379,11 @@
         <v>0</v>
       </c>
       <c r="L122" s="1">
-        <f>H122*I122</f>
+        <f t="shared" si="2"/>
         <v>11770</v>
       </c>
       <c r="M122" s="1">
-        <f>L122*1.11</f>
+        <f t="shared" si="3"/>
         <v>13064.7</v>
       </c>
       <c r="N122" t="s">
@@ -7387,7 +7393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>57</v>
       </c>
@@ -7422,11 +7428,11 @@
         <v>0</v>
       </c>
       <c r="L123" s="1">
-        <f>H123*I123</f>
+        <f t="shared" si="2"/>
         <v>30270</v>
       </c>
       <c r="M123" s="1">
-        <f>L123*1.11</f>
+        <f t="shared" si="3"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N123" t="s">
@@ -7436,7 +7442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>57</v>
       </c>
@@ -7471,11 +7477,11 @@
         <v>0</v>
       </c>
       <c r="L124" s="1">
-        <f>H124*I124</f>
+        <f t="shared" si="2"/>
         <v>30270</v>
       </c>
       <c r="M124" s="1">
-        <f>L124*1.11</f>
+        <f t="shared" si="3"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N124" t="s">
@@ -7485,7 +7491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>57</v>
       </c>
@@ -7520,11 +7526,11 @@
         <v>0</v>
       </c>
       <c r="L125" s="1">
-        <f>H125*I125</f>
+        <f t="shared" si="2"/>
         <v>47523</v>
       </c>
       <c r="M125" s="1">
-        <f>L125*1.11</f>
+        <f t="shared" si="3"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N125" t="s">
@@ -7534,7 +7540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>57</v>
       </c>
@@ -7569,11 +7575,11 @@
         <v>0</v>
       </c>
       <c r="L126" s="1">
-        <f>H126*I126</f>
+        <f t="shared" si="2"/>
         <v>31780</v>
       </c>
       <c r="M126" s="1">
-        <f>L126*1.11</f>
+        <f t="shared" si="3"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N126" t="s">
@@ -7583,7 +7589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>57</v>
       </c>
@@ -7618,11 +7624,11 @@
         <v>0</v>
       </c>
       <c r="L127" s="1">
-        <f>H127*I127</f>
+        <f t="shared" si="2"/>
         <v>31780</v>
       </c>
       <c r="M127" s="1">
-        <f>L127*1.11</f>
+        <f t="shared" si="3"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N127" t="s">
@@ -7632,7 +7638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>57</v>
       </c>
@@ -7667,11 +7673,11 @@
         <v>0</v>
       </c>
       <c r="L128" s="1">
-        <f>H128*I128</f>
+        <f t="shared" si="2"/>
         <v>45410</v>
       </c>
       <c r="M128" s="1">
-        <f>L128*1.11</f>
+        <f t="shared" si="3"/>
         <v>50405.100000000006</v>
       </c>
       <c r="N128" t="s">
@@ -7681,7 +7687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>58</v>
       </c>
@@ -7716,11 +7722,11 @@
         <v>0</v>
       </c>
       <c r="L129" s="1">
-        <f>H129*I129</f>
+        <f t="shared" si="2"/>
         <v>11212</v>
       </c>
       <c r="M129" s="1">
-        <f>L129*1.11</f>
+        <f t="shared" si="3"/>
         <v>12445.320000000002</v>
       </c>
       <c r="N129" t="s">
@@ -7730,7 +7736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>58</v>
       </c>
@@ -7765,11 +7771,11 @@
         <v>0</v>
       </c>
       <c r="L130" s="1">
-        <f>H130*I130</f>
+        <f t="shared" ref="L130:L193" si="4">H130*I130</f>
         <v>11212</v>
       </c>
       <c r="M130" s="1">
-        <f>L130*1.11</f>
+        <f t="shared" ref="M130:M193" si="5">L130*1.11</f>
         <v>12445.320000000002</v>
       </c>
       <c r="N130" t="s">
@@ -7779,7 +7785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>58</v>
       </c>
@@ -7814,11 +7820,11 @@
         <v>0</v>
       </c>
       <c r="L131" s="1">
-        <f>H131*I131</f>
+        <f t="shared" si="4"/>
         <v>11212</v>
       </c>
       <c r="M131" s="1">
-        <f>L131*1.11</f>
+        <f t="shared" si="5"/>
         <v>12445.320000000002</v>
       </c>
       <c r="N131" t="s">
@@ -7828,7 +7834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>58</v>
       </c>
@@ -7863,11 +7869,11 @@
         <v>0</v>
       </c>
       <c r="L132" s="1">
-        <f>H132*I132</f>
+        <f t="shared" si="4"/>
         <v>22705</v>
       </c>
       <c r="M132" s="1">
-        <f>L132*1.11</f>
+        <f t="shared" si="5"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N132" t="s">
@@ -7877,7 +7883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>59</v>
       </c>
@@ -7912,11 +7918,11 @@
         <v>0</v>
       </c>
       <c r="L133" s="1">
-        <f>H133*I133</f>
+        <f t="shared" si="4"/>
         <v>47523</v>
       </c>
       <c r="M133" s="1">
-        <f>L133*1.11</f>
+        <f t="shared" si="5"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N133" t="s">
@@ -7926,7 +7932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>59</v>
       </c>
@@ -7961,11 +7967,11 @@
         <v>0</v>
       </c>
       <c r="L134" s="1">
-        <f>H134*I134</f>
+        <f t="shared" si="4"/>
         <v>31780</v>
       </c>
       <c r="M134" s="1">
-        <f>L134*1.11</f>
+        <f t="shared" si="5"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N134" t="s">
@@ -7975,7 +7981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>59</v>
       </c>
@@ -8010,11 +8016,11 @@
         <v>0</v>
       </c>
       <c r="L135" s="1">
-        <f>H135*I135</f>
+        <f t="shared" si="4"/>
         <v>22705</v>
       </c>
       <c r="M135" s="1">
-        <f>L135*1.11</f>
+        <f t="shared" si="5"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N135" t="s">
@@ -8024,7 +8030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>60</v>
       </c>
@@ -8059,11 +8065,11 @@
         <v>0</v>
       </c>
       <c r="L136" s="1">
-        <f>H136*I136</f>
+        <f t="shared" si="4"/>
         <v>47523</v>
       </c>
       <c r="M136" s="1">
-        <f>L136*1.11</f>
+        <f t="shared" si="5"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N136" t="s">
@@ -8073,7 +8079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>61</v>
       </c>
@@ -8108,11 +8114,11 @@
         <v>0</v>
       </c>
       <c r="L137" s="1">
-        <f>H137*I137</f>
+        <f t="shared" si="4"/>
         <v>37840</v>
       </c>
       <c r="M137" s="1">
-        <f>L137*1.11</f>
+        <f t="shared" si="5"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N137" t="s">
@@ -8122,7 +8128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>61</v>
       </c>
@@ -8157,11 +8163,11 @@
         <v>0</v>
       </c>
       <c r="L138" s="1">
-        <f>H138*I138</f>
+        <f t="shared" si="4"/>
         <v>37840</v>
       </c>
       <c r="M138" s="1">
-        <f>L138*1.11</f>
+        <f t="shared" si="5"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N138" t="s">
@@ -8171,7 +8177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>62</v>
       </c>
@@ -8206,11 +8212,11 @@
         <v>0</v>
       </c>
       <c r="L139" s="1">
-        <f>H139*I139</f>
+        <f t="shared" si="4"/>
         <v>95046</v>
       </c>
       <c r="M139" s="1">
-        <f>L139*1.11</f>
+        <f t="shared" si="5"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N139" t="s">
@@ -8220,7 +8226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>62</v>
       </c>
@@ -8255,11 +8261,11 @@
         <v>0</v>
       </c>
       <c r="L140" s="1">
-        <f>H140*I140</f>
+        <f t="shared" si="4"/>
         <v>31780</v>
       </c>
       <c r="M140" s="1">
-        <f>L140*1.11</f>
+        <f t="shared" si="5"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N140" t="s">
@@ -8269,7 +8275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>62</v>
       </c>
@@ -8304,11 +8310,11 @@
         <v>0</v>
       </c>
       <c r="L141" s="1">
-        <f>H141*I141</f>
+        <f t="shared" si="4"/>
         <v>68115</v>
       </c>
       <c r="M141" s="1">
-        <f>L141*1.11</f>
+        <f t="shared" si="5"/>
         <v>75607.650000000009</v>
       </c>
       <c r="N141" t="s">
@@ -8318,7 +8324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>63</v>
       </c>
@@ -8353,11 +8359,11 @@
         <v>0</v>
       </c>
       <c r="L142" s="1">
-        <f>H142*I142</f>
+        <f t="shared" si="4"/>
         <v>190092</v>
       </c>
       <c r="M142" s="1">
-        <f>L142*1.11</f>
+        <f t="shared" si="5"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N142" t="s">
@@ -8367,7 +8373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>64</v>
       </c>
@@ -8402,11 +8408,11 @@
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <f>H143*I143</f>
+        <f t="shared" si="4"/>
         <v>47523</v>
       </c>
       <c r="M143" s="1">
-        <f>L143*1.11</f>
+        <f t="shared" si="5"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N143" t="s">
@@ -8416,7 +8422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>65</v>
       </c>
@@ -8451,11 +8457,11 @@
         <v>0</v>
       </c>
       <c r="L144" s="1">
-        <f>H144*I144</f>
+        <f t="shared" si="4"/>
         <v>30270</v>
       </c>
       <c r="M144" s="1">
-        <f>L144*1.11</f>
+        <f t="shared" si="5"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N144" t="s">
@@ -8465,7 +8471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>65</v>
       </c>
@@ -8500,11 +8506,11 @@
         <v>0</v>
       </c>
       <c r="L145" s="1">
-        <f>H145*I145</f>
+        <f t="shared" si="4"/>
         <v>47523</v>
       </c>
       <c r="M145" s="1">
-        <f>L145*1.11</f>
+        <f t="shared" si="5"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N145" t="s">
@@ -8514,7 +8520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>65</v>
       </c>
@@ -8549,11 +8555,11 @@
         <v>0</v>
       </c>
       <c r="L146" s="1">
-        <f>H146*I146</f>
+        <f t="shared" si="4"/>
         <v>31780</v>
       </c>
       <c r="M146" s="1">
-        <f>L146*1.11</f>
+        <f t="shared" si="5"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N146" t="s">
@@ -8563,7 +8569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>65</v>
       </c>
@@ -8598,11 +8604,11 @@
         <v>0</v>
       </c>
       <c r="L147" s="1">
-        <f>H147*I147</f>
+        <f t="shared" si="4"/>
         <v>31780</v>
       </c>
       <c r="M147" s="1">
-        <f>L147*1.11</f>
+        <f t="shared" si="5"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N147" t="s">
@@ -8612,7 +8618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>65</v>
       </c>
@@ -8647,11 +8653,11 @@
         <v>0</v>
       </c>
       <c r="L148" s="1">
-        <f>H148*I148</f>
+        <f t="shared" si="4"/>
         <v>54492</v>
       </c>
       <c r="M148" s="1">
-        <f>L148*1.11</f>
+        <f t="shared" si="5"/>
         <v>60486.12</v>
       </c>
       <c r="N148" t="s">
@@ -8661,7 +8667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>66</v>
       </c>
@@ -8696,11 +8702,11 @@
         <v>0</v>
       </c>
       <c r="L149" s="1">
-        <f>H149*I149</f>
+        <f t="shared" si="4"/>
         <v>60540</v>
       </c>
       <c r="M149" s="1">
-        <f>L149*1.11</f>
+        <f t="shared" si="5"/>
         <v>67199.400000000009</v>
       </c>
       <c r="N149" t="s">
@@ -8710,7 +8716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>66</v>
       </c>
@@ -8745,11 +8751,11 @@
         <v>0</v>
       </c>
       <c r="L150" s="1">
-        <f>H150*I150</f>
+        <f t="shared" si="4"/>
         <v>60540</v>
       </c>
       <c r="M150" s="1">
-        <f>L150*1.11</f>
+        <f t="shared" si="5"/>
         <v>67199.400000000009</v>
       </c>
       <c r="N150" t="s">
@@ -8759,7 +8765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>67</v>
       </c>
@@ -8794,11 +8800,11 @@
         <v>0</v>
       </c>
       <c r="L151" s="1">
-        <f>H151*I151</f>
+        <f t="shared" si="4"/>
         <v>13620</v>
       </c>
       <c r="M151" s="1">
-        <f>L151*1.11</f>
+        <f t="shared" si="5"/>
         <v>15118.2</v>
       </c>
       <c r="N151" t="s">
@@ -8808,7 +8814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>67</v>
       </c>
@@ -8843,11 +8849,11 @@
         <v>0</v>
       </c>
       <c r="L152" s="1">
-        <f>H152*I152</f>
+        <f t="shared" si="4"/>
         <v>13620</v>
       </c>
       <c r="M152" s="1">
-        <f>L152*1.11</f>
+        <f t="shared" si="5"/>
         <v>15118.2</v>
       </c>
       <c r="N152" t="s">
@@ -8857,7 +8863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>67</v>
       </c>
@@ -8892,11 +8898,11 @@
         <v>0</v>
       </c>
       <c r="L153" s="1">
-        <f>H153*I153</f>
+        <f t="shared" si="4"/>
         <v>16818</v>
       </c>
       <c r="M153" s="1">
-        <f>L153*1.11</f>
+        <f t="shared" si="5"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N153" t="s">
@@ -8906,7 +8912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>67</v>
       </c>
@@ -8941,11 +8947,11 @@
         <v>0</v>
       </c>
       <c r="L154" s="1">
-        <f>H154*I154</f>
+        <f t="shared" si="4"/>
         <v>16818</v>
       </c>
       <c r="M154" s="1">
-        <f>L154*1.11</f>
+        <f t="shared" si="5"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N154" t="s">
@@ -8955,7 +8961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>68</v>
       </c>
@@ -8990,11 +8996,11 @@
         <v>0</v>
       </c>
       <c r="L155" s="1">
-        <f>H155*I155</f>
+        <f t="shared" si="4"/>
         <v>47523</v>
       </c>
       <c r="M155" s="1">
-        <f>L155*1.11</f>
+        <f t="shared" si="5"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N155" t="s">
@@ -9004,7 +9010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>69</v>
       </c>
@@ -9039,11 +9045,11 @@
         <v>0</v>
       </c>
       <c r="L156" s="1">
-        <f>H156*I156</f>
+        <f t="shared" si="4"/>
         <v>30270</v>
       </c>
       <c r="M156" s="1">
-        <f>L156*1.11</f>
+        <f t="shared" si="5"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N156" t="s">
@@ -9053,7 +9059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>69</v>
       </c>
@@ -9088,11 +9094,11 @@
         <v>0</v>
       </c>
       <c r="L157" s="1">
-        <f>H157*I157</f>
+        <f t="shared" si="4"/>
         <v>30270</v>
       </c>
       <c r="M157" s="1">
-        <f>L157*1.11</f>
+        <f t="shared" si="5"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N157" t="s">
@@ -9102,7 +9108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>69</v>
       </c>
@@ -9137,11 +9143,11 @@
         <v>0</v>
       </c>
       <c r="L158" s="1">
-        <f>H158*I158</f>
+        <f t="shared" si="4"/>
         <v>33636</v>
       </c>
       <c r="M158" s="1">
-        <f>L158*1.11</f>
+        <f t="shared" si="5"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N158" t="s">
@@ -9151,7 +9157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>69</v>
       </c>
@@ -9186,11 +9192,11 @@
         <v>0</v>
       </c>
       <c r="L159" s="1">
-        <f>H159*I159</f>
+        <f t="shared" si="4"/>
         <v>22705</v>
       </c>
       <c r="M159" s="1">
-        <f>L159*1.11</f>
+        <f t="shared" si="5"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N159" t="s">
@@ -9200,7 +9206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>70</v>
       </c>
@@ -9235,11 +9241,11 @@
         <v>0</v>
       </c>
       <c r="L160" s="1">
-        <f>H160*I160</f>
+        <f t="shared" si="4"/>
         <v>23540</v>
       </c>
       <c r="M160" s="1">
-        <f>L160*1.11</f>
+        <f t="shared" si="5"/>
         <v>26129.4</v>
       </c>
       <c r="N160" t="s">
@@ -9249,7 +9255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>70</v>
       </c>
@@ -9284,11 +9290,11 @@
         <v>0</v>
       </c>
       <c r="L161" s="1">
-        <f>H161*I161</f>
+        <f t="shared" si="4"/>
         <v>23540</v>
       </c>
       <c r="M161" s="1">
-        <f>L161*1.11</f>
+        <f t="shared" si="5"/>
         <v>26129.4</v>
       </c>
       <c r="N161" t="s">
@@ -9298,7 +9304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>70</v>
       </c>
@@ -9333,11 +9339,11 @@
         <v>0</v>
       </c>
       <c r="L162" s="1">
-        <f>H162*I162</f>
+        <f t="shared" si="4"/>
         <v>23540</v>
       </c>
       <c r="M162" s="1">
-        <f>L162*1.11</f>
+        <f t="shared" si="5"/>
         <v>26129.4</v>
       </c>
       <c r="N162" t="s">
@@ -9347,7 +9353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>70</v>
       </c>
@@ -9382,11 +9388,11 @@
         <v>0</v>
       </c>
       <c r="L163" s="1">
-        <f>H163*I163</f>
+        <f t="shared" si="4"/>
         <v>33636</v>
       </c>
       <c r="M163" s="1">
-        <f>L163*1.11</f>
+        <f t="shared" si="5"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N163" t="s">
@@ -9396,7 +9402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>70</v>
       </c>
@@ -9431,11 +9437,11 @@
         <v>0</v>
       </c>
       <c r="L164" s="1">
-        <f>H164*I164</f>
+        <f t="shared" si="4"/>
         <v>33636</v>
       </c>
       <c r="M164" s="1">
-        <f>L164*1.11</f>
+        <f t="shared" si="5"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N164" t="s">
@@ -9445,7 +9451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>70</v>
       </c>
@@ -9480,11 +9486,11 @@
         <v>0</v>
       </c>
       <c r="L165" s="1">
-        <f>H165*I165</f>
+        <f t="shared" si="4"/>
         <v>33636</v>
       </c>
       <c r="M165" s="1">
-        <f>L165*1.11</f>
+        <f t="shared" si="5"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N165" t="s">
@@ -9494,7 +9500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>71</v>
       </c>
@@ -9529,11 +9535,11 @@
         <v>0</v>
       </c>
       <c r="L166" s="1">
-        <f>H166*I166</f>
+        <f t="shared" si="4"/>
         <v>95046</v>
       </c>
       <c r="M166" s="1">
-        <f>L166*1.11</f>
+        <f t="shared" si="5"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N166" t="s">
@@ -9543,7 +9549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>71</v>
       </c>
@@ -9578,11 +9584,11 @@
         <v>0</v>
       </c>
       <c r="L167" s="1">
-        <f>H167*I167</f>
+        <f t="shared" si="4"/>
         <v>54504</v>
       </c>
       <c r="M167" s="1">
-        <f>L167*1.11</f>
+        <f t="shared" si="5"/>
         <v>60499.44</v>
       </c>
       <c r="N167" t="s">
@@ -9592,7 +9598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>71</v>
       </c>
@@ -9627,11 +9633,11 @@
         <v>0</v>
       </c>
       <c r="L168" s="1">
-        <f>H168*I168</f>
+        <f t="shared" si="4"/>
         <v>54504</v>
       </c>
       <c r="M168" s="1">
-        <f>L168*1.11</f>
+        <f t="shared" si="5"/>
         <v>60499.44</v>
       </c>
       <c r="N168" t="s">
@@ -9641,7 +9647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
         <v>72</v>
       </c>
@@ -9676,11 +9682,11 @@
         <v>0</v>
       </c>
       <c r="L169" s="18">
-        <f>H169*I169</f>
+        <f t="shared" si="4"/>
         <v>95046</v>
       </c>
       <c r="M169" s="18">
-        <f>L169*1.11</f>
+        <f t="shared" si="5"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N169" s="19" t="s">
@@ -9690,7 +9696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
         <v>72</v>
       </c>
@@ -9725,11 +9731,11 @@
         <v>0</v>
       </c>
       <c r="L170" s="18">
-        <f>H170*I170</f>
+        <f t="shared" si="4"/>
         <v>109008</v>
       </c>
       <c r="M170" s="18">
-        <f>L170*1.11</f>
+        <f t="shared" si="5"/>
         <v>120998.88</v>
       </c>
       <c r="N170" s="19" t="s">
@@ -9739,7 +9745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>73</v>
       </c>
@@ -9774,11 +9780,11 @@
         <v>0</v>
       </c>
       <c r="L171" s="1">
-        <f>H171*I171</f>
+        <f t="shared" si="4"/>
         <v>36336</v>
       </c>
       <c r="M171" s="1">
-        <f>L171*1.11</f>
+        <f t="shared" si="5"/>
         <v>40332.960000000006</v>
       </c>
       <c r="N171" t="s">
@@ -9788,7 +9794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>73</v>
       </c>
@@ -9823,11 +9829,11 @@
         <v>0</v>
       </c>
       <c r="L172" s="1">
-        <f>H172*I172</f>
+        <f t="shared" si="4"/>
         <v>18168</v>
       </c>
       <c r="M172" s="1">
-        <f>L172*1.11</f>
+        <f t="shared" si="5"/>
         <v>20166.480000000003</v>
       </c>
       <c r="N172" t="s">
@@ -9837,7 +9843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>74</v>
       </c>
@@ -9872,11 +9878,11 @@
         <v>0</v>
       </c>
       <c r="L173" s="1">
-        <f>H173*I173</f>
+        <f t="shared" si="4"/>
         <v>14120</v>
       </c>
       <c r="M173" s="1">
-        <f>L173*1.11</f>
+        <f t="shared" si="5"/>
         <v>15673.2</v>
       </c>
       <c r="N173" t="s">
@@ -9886,7 +9892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>74</v>
       </c>
@@ -9921,11 +9927,11 @@
         <v>0</v>
       </c>
       <c r="L174" s="1">
-        <f>H174*I174</f>
+        <f t="shared" si="4"/>
         <v>73332</v>
       </c>
       <c r="M174" s="1">
-        <f>L174*1.11</f>
+        <f t="shared" si="5"/>
         <v>81398.52</v>
       </c>
       <c r="N174" t="s">
@@ -9935,7 +9941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>74</v>
       </c>
@@ -9970,11 +9976,11 @@
         <v>0</v>
       </c>
       <c r="L175" s="1">
-        <f>H175*I175</f>
+        <f t="shared" si="4"/>
         <v>31780</v>
       </c>
       <c r="M175" s="1">
-        <f>L175*1.11</f>
+        <f t="shared" si="5"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N175" t="s">
@@ -9984,7 +9990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>74</v>
       </c>
@@ -10019,11 +10025,11 @@
         <v>0</v>
       </c>
       <c r="L176" s="1">
-        <f>H176*I176</f>
+        <f t="shared" si="4"/>
         <v>31780</v>
       </c>
       <c r="M176" s="1">
-        <f>L176*1.11</f>
+        <f t="shared" si="5"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N176" t="s">
@@ -10033,7 +10039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>74</v>
       </c>
@@ -10068,11 +10074,11 @@
         <v>0</v>
       </c>
       <c r="L177" s="1">
-        <f>H177*I177</f>
+        <f t="shared" si="4"/>
         <v>22705</v>
       </c>
       <c r="M177" s="1">
-        <f>L177*1.11</f>
+        <f t="shared" si="5"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N177" t="s">
@@ -10082,7 +10088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>75</v>
       </c>
@@ -10117,11 +10123,11 @@
         <v>0</v>
       </c>
       <c r="L178" s="1">
-        <f>H178*I178</f>
+        <f t="shared" si="4"/>
         <v>181640</v>
       </c>
       <c r="M178" s="1">
-        <f>L178*1.11</f>
+        <f t="shared" si="5"/>
         <v>201620.40000000002</v>
       </c>
       <c r="N178" t="s">
@@ -10131,7 +10137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>76</v>
       </c>
@@ -10166,11 +10172,11 @@
         <v>0</v>
       </c>
       <c r="L179" s="1">
-        <f>H179*I179</f>
+        <f t="shared" si="4"/>
         <v>47523</v>
       </c>
       <c r="M179" s="1">
-        <f>L179*1.11</f>
+        <f t="shared" si="5"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N179" t="s">
@@ -10180,7 +10186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>76</v>
       </c>
@@ -10215,11 +10221,11 @@
         <v>0</v>
       </c>
       <c r="L180" s="1">
-        <f>H180*I180</f>
+        <f t="shared" si="4"/>
         <v>36336</v>
       </c>
       <c r="M180" s="1">
-        <f>L180*1.11</f>
+        <f t="shared" si="5"/>
         <v>40332.960000000006</v>
       </c>
       <c r="N180" t="s">
@@ -10229,7 +10235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>77</v>
       </c>
@@ -10264,11 +10270,11 @@
         <v>0</v>
       </c>
       <c r="L181" s="1">
-        <f>H181*I181</f>
+        <f t="shared" si="4"/>
         <v>30270</v>
       </c>
       <c r="M181" s="1">
-        <f>L181*1.11</f>
+        <f t="shared" si="5"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N181" t="s">
@@ -10278,7 +10284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>77</v>
       </c>
@@ -10313,11 +10319,11 @@
         <v>0</v>
       </c>
       <c r="L182" s="1">
-        <f>H182*I182</f>
+        <f t="shared" si="4"/>
         <v>30270</v>
       </c>
       <c r="M182" s="1">
-        <f>L182*1.11</f>
+        <f t="shared" si="5"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N182" t="s">
@@ -10327,7 +10333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>77</v>
       </c>
@@ -10362,11 +10368,11 @@
         <v>0</v>
       </c>
       <c r="L183" s="1">
-        <f>H183*I183</f>
+        <f t="shared" si="4"/>
         <v>30270</v>
       </c>
       <c r="M183" s="1">
-        <f>L183*1.11</f>
+        <f t="shared" si="5"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N183" t="s">
@@ -10376,7 +10382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>77</v>
       </c>
@@ -10411,11 +10417,11 @@
         <v>0</v>
       </c>
       <c r="L184" s="1">
-        <f>H184*I184</f>
+        <f t="shared" si="4"/>
         <v>31780</v>
       </c>
       <c r="M184" s="1">
-        <f>L184*1.11</f>
+        <f t="shared" si="5"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N184" t="s">
@@ -10425,7 +10431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>77</v>
       </c>
@@ -10460,11 +10466,11 @@
         <v>0</v>
       </c>
       <c r="L185" s="1">
-        <f>H185*I185</f>
+        <f t="shared" si="4"/>
         <v>33636</v>
       </c>
       <c r="M185" s="1">
-        <f>L185*1.11</f>
+        <f t="shared" si="5"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N185" t="s">
@@ -10474,7 +10480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>77</v>
       </c>
@@ -10509,11 +10515,11 @@
         <v>0</v>
       </c>
       <c r="L186" s="1">
-        <f>H186*I186</f>
+        <f t="shared" si="4"/>
         <v>33636</v>
       </c>
       <c r="M186" s="1">
-        <f>L186*1.11</f>
+        <f t="shared" si="5"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N186" t="s">
@@ -10523,7 +10529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>78</v>
       </c>
@@ -10558,11 +10564,11 @@
         <v>0</v>
       </c>
       <c r="L187" s="1">
-        <f>H187*I187</f>
+        <f t="shared" si="4"/>
         <v>30270</v>
       </c>
       <c r="M187" s="1">
-        <f>L187*1.11</f>
+        <f t="shared" si="5"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N187" t="s">
@@ -10572,7 +10578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>78</v>
       </c>
@@ -10607,11 +10613,11 @@
         <v>0</v>
       </c>
       <c r="L188" s="1">
-        <f>H188*I188</f>
+        <f t="shared" si="4"/>
         <v>13578</v>
       </c>
       <c r="M188" s="1">
-        <f>L188*1.11</f>
+        <f t="shared" si="5"/>
         <v>15071.580000000002</v>
       </c>
       <c r="N188" t="s">
@@ -10621,7 +10627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>78</v>
       </c>
@@ -10656,11 +10662,11 @@
         <v>0</v>
       </c>
       <c r="L189" s="1">
-        <f>H189*I189</f>
+        <f t="shared" si="4"/>
         <v>11770</v>
       </c>
       <c r="M189" s="1">
-        <f>L189*1.11</f>
+        <f t="shared" si="5"/>
         <v>13064.7</v>
       </c>
       <c r="N189" t="s">
@@ -10670,7 +10676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>78</v>
       </c>
@@ -10705,11 +10711,11 @@
         <v>0</v>
       </c>
       <c r="L190" s="1">
-        <f>H190*I190</f>
+        <f t="shared" si="4"/>
         <v>11770</v>
       </c>
       <c r="M190" s="1">
-        <f>L190*1.11</f>
+        <f t="shared" si="5"/>
         <v>13064.7</v>
       </c>
       <c r="N190" t="s">
@@ -10719,7 +10725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>78</v>
       </c>
@@ -10754,11 +10760,11 @@
         <v>0</v>
       </c>
       <c r="L191" s="1">
-        <f>H191*I191</f>
+        <f t="shared" si="4"/>
         <v>16818</v>
       </c>
       <c r="M191" s="1">
-        <f>L191*1.11</f>
+        <f t="shared" si="5"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N191" t="s">
@@ -10768,7 +10774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>78</v>
       </c>
@@ -10803,11 +10809,11 @@
         <v>0</v>
       </c>
       <c r="L192" s="1">
-        <f>H192*I192</f>
+        <f t="shared" si="4"/>
         <v>16818</v>
       </c>
       <c r="M192" s="1">
-        <f>L192*1.11</f>
+        <f t="shared" si="5"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N192" t="s">
@@ -10817,7 +10823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>79</v>
       </c>
@@ -10852,11 +10858,11 @@
         <v>0</v>
       </c>
       <c r="L193" s="1">
-        <f>H193*I193</f>
+        <f t="shared" si="4"/>
         <v>109008</v>
       </c>
       <c r="M193" s="1">
-        <f>L193*1.11</f>
+        <f t="shared" si="5"/>
         <v>120998.88</v>
       </c>
       <c r="N193" t="s">
@@ -10866,7 +10872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>79</v>
       </c>
@@ -10901,11 +10907,11 @@
         <v>0</v>
       </c>
       <c r="L194" s="1">
-        <f>H194*I194</f>
+        <f t="shared" ref="L194:L257" si="6">H194*I194</f>
         <v>109008</v>
       </c>
       <c r="M194" s="1">
-        <f>L194*1.11</f>
+        <f t="shared" ref="M194:M257" si="7">L194*1.11</f>
         <v>120998.88</v>
       </c>
       <c r="N194" t="s">
@@ -10915,7 +10921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>80</v>
       </c>
@@ -10950,11 +10956,11 @@
         <v>0</v>
       </c>
       <c r="L195" s="1">
-        <f>H195*I195</f>
+        <f t="shared" si="6"/>
         <v>190092</v>
       </c>
       <c r="M195" s="1">
-        <f>L195*1.11</f>
+        <f t="shared" si="7"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N195" t="s">
@@ -10964,7 +10970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>81</v>
       </c>
@@ -10999,11 +11005,11 @@
         <v>0</v>
       </c>
       <c r="L196" s="1">
-        <f>H196*I196</f>
+        <f t="shared" si="6"/>
         <v>36336</v>
       </c>
       <c r="M196" s="1">
-        <f>L196*1.11</f>
+        <f t="shared" si="7"/>
         <v>40332.960000000006</v>
       </c>
       <c r="N196" t="s">
@@ -11013,7 +11019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>81</v>
       </c>
@@ -11048,11 +11054,11 @@
         <v>0</v>
       </c>
       <c r="L197" s="1">
-        <f>H197*I197</f>
+        <f t="shared" si="6"/>
         <v>36336</v>
       </c>
       <c r="M197" s="1">
-        <f>L197*1.11</f>
+        <f t="shared" si="7"/>
         <v>40332.960000000006</v>
       </c>
       <c r="N197" t="s">
@@ -11062,7 +11068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>82</v>
       </c>
@@ -11097,11 +11103,11 @@
         <v>0</v>
       </c>
       <c r="L198" s="1">
-        <f>H198*I198</f>
+        <f t="shared" si="6"/>
         <v>190092</v>
       </c>
       <c r="M198" s="1">
-        <f>L198*1.11</f>
+        <f t="shared" si="7"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N198" t="s">
@@ -11111,7 +11117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>83</v>
       </c>
@@ -11146,11 +11152,11 @@
         <v>0</v>
       </c>
       <c r="L199" s="1">
-        <f>H199*I199</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M199" s="1">
-        <f>L199*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N199" t="s">
@@ -11160,7 +11166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>83</v>
       </c>
@@ -11195,11 +11201,11 @@
         <v>0</v>
       </c>
       <c r="L200" s="1">
-        <f>H200*I200</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M200" s="1">
-        <f>L200*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N200" t="s">
@@ -11209,7 +11215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>83</v>
       </c>
@@ -11244,11 +11250,11 @@
         <v>0</v>
       </c>
       <c r="L201" s="1">
-        <f>H201*I201</f>
+        <f t="shared" si="6"/>
         <v>47523</v>
       </c>
       <c r="M201" s="1">
-        <f>L201*1.11</f>
+        <f t="shared" si="7"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N201" t="s">
@@ -11258,7 +11264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>83</v>
       </c>
@@ -11293,11 +11299,11 @@
         <v>0</v>
       </c>
       <c r="L202" s="1">
-        <f>H202*I202</f>
+        <f t="shared" si="6"/>
         <v>23540</v>
       </c>
       <c r="M202" s="1">
-        <f>L202*1.11</f>
+        <f t="shared" si="7"/>
         <v>26129.4</v>
       </c>
       <c r="N202" t="s">
@@ -11307,7 +11313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>83</v>
       </c>
@@ -11342,11 +11348,11 @@
         <v>0</v>
       </c>
       <c r="L203" s="1">
-        <f>H203*I203</f>
+        <f t="shared" si="6"/>
         <v>22705</v>
       </c>
       <c r="M203" s="1">
-        <f>L203*1.11</f>
+        <f t="shared" si="7"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N203" t="s">
@@ -11356,7 +11362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>84</v>
       </c>
@@ -11391,11 +11397,11 @@
         <v>0</v>
       </c>
       <c r="L204" s="1">
-        <f>H204*I204</f>
+        <f t="shared" si="6"/>
         <v>47523</v>
       </c>
       <c r="M204" s="1">
-        <f>L204*1.11</f>
+        <f t="shared" si="7"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N204" t="s">
@@ -11405,7 +11411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>85</v>
       </c>
@@ -11440,11 +11446,11 @@
         <v>0</v>
       </c>
       <c r="L205" s="1">
-        <f>H205*I205</f>
+        <f t="shared" si="6"/>
         <v>190092</v>
       </c>
       <c r="M205" s="1">
-        <f>L205*1.11</f>
+        <f t="shared" si="7"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N205" t="s">
@@ -11454,7 +11460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>86</v>
       </c>
@@ -11489,11 +11495,11 @@
         <v>0</v>
       </c>
       <c r="L206" s="1">
-        <f>H206*I206</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M206" s="1">
-        <f>L206*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N206" t="s">
@@ -11503,7 +11509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>86</v>
       </c>
@@ -11538,11 +11544,11 @@
         <v>0</v>
       </c>
       <c r="L207" s="1">
-        <f>H207*I207</f>
+        <f t="shared" si="6"/>
         <v>73332</v>
       </c>
       <c r="M207" s="1">
-        <f>L207*1.11</f>
+        <f t="shared" si="7"/>
         <v>81398.52</v>
       </c>
       <c r="N207" t="s">
@@ -11552,7 +11558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>86</v>
       </c>
@@ -11587,11 +11593,11 @@
         <v>0</v>
       </c>
       <c r="L208" s="1">
-        <f>H208*I208</f>
+        <f t="shared" si="6"/>
         <v>47523</v>
       </c>
       <c r="M208" s="1">
-        <f>L208*1.11</f>
+        <f t="shared" si="7"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N208" t="s">
@@ -11601,7 +11607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>86</v>
       </c>
@@ -11636,11 +11642,11 @@
         <v>0</v>
       </c>
       <c r="L209" s="1">
-        <f>H209*I209</f>
+        <f t="shared" si="6"/>
         <v>36336</v>
       </c>
       <c r="M209" s="1">
-        <f>L209*1.11</f>
+        <f t="shared" si="7"/>
         <v>40332.960000000006</v>
       </c>
       <c r="N209" t="s">
@@ -11650,7 +11656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>87</v>
       </c>
@@ -11685,11 +11691,11 @@
         <v>0</v>
       </c>
       <c r="L210" s="1">
-        <f>H210*I210</f>
+        <f t="shared" si="6"/>
         <v>37840</v>
       </c>
       <c r="M210" s="1">
-        <f>L210*1.11</f>
+        <f t="shared" si="7"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N210" t="s">
@@ -11699,7 +11705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>87</v>
       </c>
@@ -11734,11 +11740,11 @@
         <v>0</v>
       </c>
       <c r="L211" s="1">
-        <f>H211*I211</f>
+        <f t="shared" si="6"/>
         <v>37840</v>
       </c>
       <c r="M211" s="1">
-        <f>L211*1.11</f>
+        <f t="shared" si="7"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N211" t="s">
@@ -11748,7 +11754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>88</v>
       </c>
@@ -11783,11 +11789,11 @@
         <v>0</v>
       </c>
       <c r="L212" s="1">
-        <f>H212*I212</f>
+        <f t="shared" si="6"/>
         <v>121080</v>
       </c>
       <c r="M212" s="1">
-        <f>L212*1.11</f>
+        <f t="shared" si="7"/>
         <v>134398.80000000002</v>
       </c>
       <c r="N212" t="s">
@@ -11797,7 +11803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>88</v>
       </c>
@@ -11832,11 +11838,11 @@
         <v>0</v>
       </c>
       <c r="L213" s="1">
-        <f>H213*I213</f>
+        <f t="shared" si="6"/>
         <v>121080</v>
       </c>
       <c r="M213" s="1">
-        <f>L213*1.11</f>
+        <f t="shared" si="7"/>
         <v>134398.80000000002</v>
       </c>
       <c r="N213" t="s">
@@ -11846,7 +11852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>88</v>
       </c>
@@ -11881,11 +11887,11 @@
         <v>0</v>
       </c>
       <c r="L214" s="1">
-        <f>H214*I214</f>
+        <f t="shared" si="6"/>
         <v>380184</v>
       </c>
       <c r="M214" s="1">
-        <f>L214*1.11</f>
+        <f t="shared" si="7"/>
         <v>422004.24000000005</v>
       </c>
       <c r="N214" t="s">
@@ -11895,7 +11901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>89</v>
       </c>
@@ -11930,11 +11936,11 @@
         <v>0</v>
       </c>
       <c r="L215" s="1">
-        <f>H215*I215</f>
+        <f t="shared" si="6"/>
         <v>190092</v>
       </c>
       <c r="M215" s="1">
-        <f>L215*1.11</f>
+        <f t="shared" si="7"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N215" t="s">
@@ -11944,7 +11950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>90</v>
       </c>
@@ -11979,11 +11985,11 @@
         <v>0</v>
       </c>
       <c r="L216" s="1">
-        <f>H216*I216</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M216" s="1">
-        <f>L216*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N216" t="s">
@@ -11993,7 +11999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>90</v>
       </c>
@@ -12028,11 +12034,11 @@
         <v>0</v>
       </c>
       <c r="L217" s="1">
-        <f>H217*I217</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M217" s="1">
-        <f>L217*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N217" t="s">
@@ -12042,7 +12048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>90</v>
       </c>
@@ -12077,11 +12083,11 @@
         <v>0</v>
       </c>
       <c r="L218" s="1">
-        <f>H218*I218</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M218" s="1">
-        <f>L218*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N218" t="s">
@@ -12091,7 +12097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>90</v>
       </c>
@@ -12126,11 +12132,11 @@
         <v>0</v>
       </c>
       <c r="L219" s="1">
-        <f>H219*I219</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M219" s="1">
-        <f>L219*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N219" t="s">
@@ -12140,7 +12146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>90</v>
       </c>
@@ -12175,11 +12181,11 @@
         <v>0</v>
       </c>
       <c r="L220" s="1">
-        <f>H220*I220</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M220" s="1">
-        <f>L220*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N220" t="s">
@@ -12189,7 +12195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>90</v>
       </c>
@@ -12224,11 +12230,11 @@
         <v>0</v>
       </c>
       <c r="L221" s="1">
-        <f>H221*I221</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M221" s="1">
-        <f>L221*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N221" t="s">
@@ -12238,7 +12244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>90</v>
       </c>
@@ -12273,11 +12279,11 @@
         <v>0</v>
       </c>
       <c r="L222" s="1">
-        <f>H222*I222</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M222" s="1">
-        <f>L222*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N222" t="s">
@@ -12287,7 +12293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>91</v>
       </c>
@@ -12322,11 +12328,11 @@
         <v>0</v>
       </c>
       <c r="L223" s="1">
-        <f>H223*I223</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M223" s="1">
-        <f>L223*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N223" t="s">
@@ -12336,7 +12342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>91</v>
       </c>
@@ -12371,11 +12377,11 @@
         <v>0</v>
       </c>
       <c r="L224" s="1">
-        <f>H224*I224</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M224" s="1">
-        <f>L224*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N224" t="s">
@@ -12385,7 +12391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>91</v>
       </c>
@@ -12420,11 +12426,11 @@
         <v>0</v>
       </c>
       <c r="L225" s="1">
-        <f>H225*I225</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M225" s="1">
-        <f>L225*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N225" t="s">
@@ -12434,7 +12440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>91</v>
       </c>
@@ -12469,11 +12475,11 @@
         <v>0</v>
       </c>
       <c r="L226" s="1">
-        <f>H226*I226</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M226" s="1">
-        <f>L226*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N226" t="s">
@@ -12483,7 +12489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>92</v>
       </c>
@@ -12518,11 +12524,11 @@
         <v>0</v>
       </c>
       <c r="L227" s="1">
-        <f>H227*I227</f>
+        <f t="shared" si="6"/>
         <v>109998</v>
       </c>
       <c r="M227" s="1">
-        <f>L227*1.11</f>
+        <f t="shared" si="7"/>
         <v>122097.78000000001</v>
       </c>
       <c r="N227" t="s">
@@ -12532,7 +12538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>93</v>
       </c>
@@ -12567,11 +12573,11 @@
         <v>0</v>
       </c>
       <c r="L228" s="1">
-        <f>H228*I228</f>
+        <f t="shared" si="6"/>
         <v>95046</v>
       </c>
       <c r="M228" s="1">
-        <f>L228*1.11</f>
+        <f t="shared" si="7"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N228" t="s">
@@ -12581,7 +12587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>93</v>
       </c>
@@ -12616,11 +12622,11 @@
         <v>0</v>
       </c>
       <c r="L229" s="1">
-        <f>H229*I229</f>
+        <f t="shared" si="6"/>
         <v>31780</v>
       </c>
       <c r="M229" s="1">
-        <f>L229*1.11</f>
+        <f t="shared" si="7"/>
         <v>35275.800000000003</v>
       </c>
       <c r="N229" t="s">
@@ -12630,7 +12636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>94</v>
       </c>
@@ -12665,11 +12671,11 @@
         <v>0</v>
       </c>
       <c r="L230" s="1">
-        <f>H230*I230</f>
+        <f t="shared" si="6"/>
         <v>36336</v>
       </c>
       <c r="M230" s="1">
-        <f>L230*1.11</f>
+        <f t="shared" si="7"/>
         <v>40332.960000000006</v>
       </c>
       <c r="N230" t="s">
@@ -12679,7 +12685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>94</v>
       </c>
@@ -12714,11 +12720,11 @@
         <v>0</v>
       </c>
       <c r="L231" s="1">
-        <f>H231*I231</f>
+        <f t="shared" si="6"/>
         <v>36336</v>
       </c>
       <c r="M231" s="1">
-        <f>L231*1.11</f>
+        <f t="shared" si="7"/>
         <v>40332.960000000006</v>
       </c>
       <c r="N231" t="s">
@@ -12728,7 +12734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>95</v>
       </c>
@@ -12763,11 +12769,11 @@
         <v>0</v>
       </c>
       <c r="L232" s="1">
-        <f>H232*I232</f>
+        <f t="shared" si="6"/>
         <v>33636</v>
       </c>
       <c r="M232" s="1">
-        <f>L232*1.11</f>
+        <f t="shared" si="7"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N232" t="s">
@@ -12777,7 +12783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>95</v>
       </c>
@@ -12812,11 +12818,11 @@
         <v>0</v>
       </c>
       <c r="L233" s="1">
-        <f>H233*I233</f>
+        <f t="shared" si="6"/>
         <v>33636</v>
       </c>
       <c r="M233" s="1">
-        <f>L233*1.11</f>
+        <f t="shared" si="7"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N233" t="s">
@@ -12826,7 +12832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>95</v>
       </c>
@@ -12861,11 +12867,11 @@
         <v>0</v>
       </c>
       <c r="L234" s="1">
-        <f>H234*I234</f>
+        <f t="shared" si="6"/>
         <v>33636</v>
       </c>
       <c r="M234" s="1">
-        <f>L234*1.11</f>
+        <f t="shared" si="7"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N234" t="s">
@@ -12875,7 +12881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>96</v>
       </c>
@@ -12910,11 +12916,11 @@
         <v>0</v>
       </c>
       <c r="L235" s="1">
-        <f>H235*I235</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M235" s="1">
-        <f>L235*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N235" t="s">
@@ -12924,7 +12930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>96</v>
       </c>
@@ -12959,11 +12965,11 @@
         <v>0</v>
       </c>
       <c r="L236" s="1">
-        <f>H236*I236</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M236" s="1">
-        <f>L236*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N236" t="s">
@@ -12973,7 +12979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>96</v>
       </c>
@@ -13008,11 +13014,11 @@
         <v>0</v>
       </c>
       <c r="L237" s="1">
-        <f>H237*I237</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M237" s="1">
-        <f>L237*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N237" t="s">
@@ -13022,7 +13028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>96</v>
       </c>
@@ -13057,11 +13063,11 @@
         <v>0</v>
       </c>
       <c r="L238" s="1">
-        <f>H238*I238</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M238" s="1">
-        <f>L238*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N238" t="s">
@@ -13071,7 +13077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>96</v>
       </c>
@@ -13106,11 +13112,11 @@
         <v>0</v>
       </c>
       <c r="L239" s="1">
-        <f>H239*I239</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M239" s="1">
-        <f>L239*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N239" t="s">
@@ -13120,7 +13126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>96</v>
       </c>
@@ -13155,11 +13161,11 @@
         <v>0</v>
       </c>
       <c r="L240" s="1">
-        <f>H240*I240</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M240" s="1">
-        <f>L240*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N240" t="s">
@@ -13169,7 +13175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>97</v>
       </c>
@@ -13204,11 +13210,11 @@
         <v>0</v>
       </c>
       <c r="L241" s="1">
-        <f>H241*I241</f>
+        <f t="shared" si="6"/>
         <v>570276</v>
       </c>
       <c r="M241" s="1">
-        <f>L241*1.11</f>
+        <f t="shared" si="7"/>
         <v>633006.3600000001</v>
       </c>
       <c r="N241" t="s">
@@ -13218,7 +13224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>98</v>
       </c>
@@ -13253,11 +13259,11 @@
         <v>0</v>
       </c>
       <c r="L242" s="1">
-        <f>H242*I242</f>
+        <f t="shared" si="6"/>
         <v>190092</v>
       </c>
       <c r="M242" s="1">
-        <f>L242*1.11</f>
+        <f t="shared" si="7"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N242" t="s">
@@ -13267,7 +13273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>99</v>
       </c>
@@ -13302,11 +13308,11 @@
         <v>0</v>
       </c>
       <c r="L243" s="1">
-        <f>H243*I243</f>
+        <f t="shared" si="6"/>
         <v>190092</v>
       </c>
       <c r="M243" s="1">
-        <f>L243*1.11</f>
+        <f t="shared" si="7"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N243" t="s">
@@ -13316,7 +13322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>100</v>
       </c>
@@ -13351,11 +13357,11 @@
         <v>0</v>
       </c>
       <c r="L244" s="1">
-        <f>H244*I244</f>
+        <f t="shared" si="6"/>
         <v>95046</v>
       </c>
       <c r="M244" s="1">
-        <f>L244*1.11</f>
+        <f t="shared" si="7"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N244" t="s">
@@ -13365,7 +13371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>101</v>
       </c>
@@ -13400,11 +13406,11 @@
         <v>0</v>
       </c>
       <c r="L245" s="1">
-        <f>H245*I245</f>
+        <f t="shared" si="6"/>
         <v>121080</v>
       </c>
       <c r="M245" s="1">
-        <f>L245*1.11</f>
+        <f t="shared" si="7"/>
         <v>134398.80000000002</v>
       </c>
       <c r="N245" t="s">
@@ -13414,7 +13420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>101</v>
       </c>
@@ -13449,11 +13455,11 @@
         <v>0</v>
       </c>
       <c r="L246" s="1">
-        <f>H246*I246</f>
+        <f t="shared" si="6"/>
         <v>121080</v>
       </c>
       <c r="M246" s="1">
-        <f>L246*1.11</f>
+        <f t="shared" si="7"/>
         <v>134398.80000000002</v>
       </c>
       <c r="N246" t="s">
@@ -13463,7 +13469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>101</v>
       </c>
@@ -13498,11 +13504,11 @@
         <v>0</v>
       </c>
       <c r="L247" s="1">
-        <f>H247*I247</f>
+        <f t="shared" si="6"/>
         <v>121080</v>
       </c>
       <c r="M247" s="1">
-        <f>L247*1.11</f>
+        <f t="shared" si="7"/>
         <v>134398.80000000002</v>
       </c>
       <c r="N247" t="s">
@@ -13512,7 +13518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>102</v>
       </c>
@@ -13547,11 +13553,11 @@
         <v>0</v>
       </c>
       <c r="L248" s="1">
-        <f>H248*I248</f>
+        <f t="shared" si="6"/>
         <v>30270</v>
       </c>
       <c r="M248" s="1">
-        <f>L248*1.11</f>
+        <f t="shared" si="7"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N248" t="s">
@@ -13561,7 +13567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>102</v>
       </c>
@@ -13596,11 +13602,11 @@
         <v>0</v>
       </c>
       <c r="L249" s="1">
-        <f>H249*I249</f>
+        <f t="shared" si="6"/>
         <v>30270</v>
       </c>
       <c r="M249" s="1">
-        <f>L249*1.11</f>
+        <f t="shared" si="7"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N249" t="s">
@@ -13610,7 +13616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>102</v>
       </c>
@@ -13645,11 +13651,11 @@
         <v>0</v>
       </c>
       <c r="L250" s="1">
-        <f>H250*I250</f>
+        <f t="shared" si="6"/>
         <v>30270</v>
       </c>
       <c r="M250" s="1">
-        <f>L250*1.11</f>
+        <f t="shared" si="7"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N250" t="s">
@@ -13659,7 +13665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>102</v>
       </c>
@@ -13694,11 +13700,11 @@
         <v>0</v>
       </c>
       <c r="L251" s="1">
-        <f>H251*I251</f>
+        <f t="shared" si="6"/>
         <v>30270</v>
       </c>
       <c r="M251" s="1">
-        <f>L251*1.11</f>
+        <f t="shared" si="7"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N251" t="s">
@@ -13708,7 +13714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>103</v>
       </c>
@@ -13743,11 +13749,11 @@
         <v>0</v>
       </c>
       <c r="L252" s="1">
-        <f>H252*I252</f>
+        <f t="shared" si="6"/>
         <v>36666</v>
       </c>
       <c r="M252" s="1">
-        <f>L252*1.11</f>
+        <f t="shared" si="7"/>
         <v>40699.26</v>
       </c>
       <c r="N252" t="s">
@@ -13757,7 +13763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>103</v>
       </c>
@@ -13792,11 +13798,11 @@
         <v>0</v>
       </c>
       <c r="L253" s="1">
-        <f>H253*I253</f>
+        <f t="shared" si="6"/>
         <v>73332</v>
       </c>
       <c r="M253" s="1">
-        <f>L253*1.11</f>
+        <f t="shared" si="7"/>
         <v>81398.52</v>
       </c>
       <c r="N253" t="s">
@@ -13806,7 +13812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>103</v>
       </c>
@@ -13841,11 +13847,11 @@
         <v>0</v>
       </c>
       <c r="L254" s="1">
-        <f>H254*I254</f>
+        <f t="shared" si="6"/>
         <v>47523</v>
       </c>
       <c r="M254" s="1">
-        <f>L254*1.11</f>
+        <f t="shared" si="7"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N254" t="s">
@@ -13855,7 +13861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>104</v>
       </c>
@@ -13890,11 +13896,11 @@
         <v>0</v>
       </c>
       <c r="L255" s="1">
-        <f>H255*I255</f>
+        <f t="shared" si="6"/>
         <v>7568</v>
       </c>
       <c r="M255" s="1">
-        <f>L255*1.11</f>
+        <f t="shared" si="7"/>
         <v>8400.4800000000014</v>
       </c>
       <c r="N255" t="s">
@@ -13904,7 +13910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>104</v>
       </c>
@@ -13939,11 +13945,11 @@
         <v>0</v>
       </c>
       <c r="L256" s="1">
-        <f>H256*I256</f>
+        <f t="shared" si="6"/>
         <v>15136</v>
       </c>
       <c r="M256" s="1">
-        <f>L256*1.11</f>
+        <f t="shared" si="7"/>
         <v>16800.960000000003</v>
       </c>
       <c r="N256" t="s">
@@ -13953,7 +13959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>104</v>
       </c>
@@ -13988,11 +13994,11 @@
         <v>0</v>
       </c>
       <c r="L257" s="1">
-        <f>H257*I257</f>
+        <f t="shared" si="6"/>
         <v>15136</v>
       </c>
       <c r="M257" s="1">
-        <f>L257*1.11</f>
+        <f t="shared" si="7"/>
         <v>16800.960000000003</v>
       </c>
       <c r="N257" t="s">
@@ -14002,7 +14008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>104</v>
       </c>
@@ -14037,11 +14043,11 @@
         <v>0</v>
       </c>
       <c r="L258" s="1">
-        <f>H258*I258</f>
+        <f t="shared" ref="L258:L321" si="8">H258*I258</f>
         <v>18162</v>
       </c>
       <c r="M258" s="1">
-        <f>L258*1.11</f>
+        <f t="shared" ref="M258:M321" si="9">L258*1.11</f>
         <v>20159.820000000003</v>
       </c>
       <c r="N258" t="s">
@@ -14051,7 +14057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>104</v>
       </c>
@@ -14086,11 +14092,11 @@
         <v>0</v>
       </c>
       <c r="L259" s="1">
-        <f>H259*I259</f>
+        <f t="shared" si="8"/>
         <v>12108</v>
       </c>
       <c r="M259" s="1">
-        <f>L259*1.11</f>
+        <f t="shared" si="9"/>
         <v>13439.880000000001</v>
       </c>
       <c r="N259" t="s">
@@ -14100,7 +14106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>104</v>
       </c>
@@ -14135,11 +14141,11 @@
         <v>0</v>
       </c>
       <c r="L260" s="1">
-        <f>H260*I260</f>
+        <f t="shared" si="8"/>
         <v>7062</v>
       </c>
       <c r="M260" s="1">
-        <f>L260*1.11</f>
+        <f t="shared" si="9"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N260" t="s">
@@ -14149,7 +14155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>104</v>
       </c>
@@ -14184,11 +14190,11 @@
         <v>0</v>
       </c>
       <c r="L261" s="1">
-        <f>H261*I261</f>
+        <f t="shared" si="8"/>
         <v>9416</v>
       </c>
       <c r="M261" s="1">
-        <f>L261*1.11</f>
+        <f t="shared" si="9"/>
         <v>10451.76</v>
       </c>
       <c r="N261" t="s">
@@ -14198,7 +14204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>104</v>
       </c>
@@ -14233,11 +14239,11 @@
         <v>0</v>
       </c>
       <c r="L262" s="1">
-        <f>H262*I262</f>
+        <f t="shared" si="8"/>
         <v>7062</v>
       </c>
       <c r="M262" s="1">
-        <f>L262*1.11</f>
+        <f t="shared" si="9"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N262" t="s">
@@ -14247,7 +14253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>105</v>
       </c>
@@ -14282,11 +14288,11 @@
         <v>0</v>
       </c>
       <c r="L263" s="1">
-        <f>H263*I263</f>
+        <f t="shared" si="8"/>
         <v>95046</v>
       </c>
       <c r="M263" s="1">
-        <f>L263*1.11</f>
+        <f t="shared" si="9"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N263" t="s">
@@ -14296,7 +14302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>106</v>
       </c>
@@ -14331,11 +14337,11 @@
         <v>0</v>
       </c>
       <c r="L264" s="1">
-        <f>H264*I264</f>
+        <f t="shared" si="8"/>
         <v>18162</v>
       </c>
       <c r="M264" s="1">
-        <f>L264*1.11</f>
+        <f t="shared" si="9"/>
         <v>20159.820000000003</v>
       </c>
       <c r="N264" t="s">
@@ -14345,7 +14351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>106</v>
       </c>
@@ -14380,11 +14386,11 @@
         <v>0</v>
       </c>
       <c r="L265" s="1">
-        <f>H265*I265</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M265" s="1">
-        <f>L265*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N265" t="s">
@@ -14394,7 +14400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>106</v>
       </c>
@@ -14429,11 +14435,11 @@
         <v>0</v>
       </c>
       <c r="L266" s="1">
-        <f>H266*I266</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M266" s="1">
-        <f>L266*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N266" t="s">
@@ -14443,7 +14449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>107</v>
       </c>
@@ -14478,11 +14484,11 @@
         <v>0</v>
       </c>
       <c r="L267" s="1">
-        <f>H267*I267</f>
+        <f t="shared" si="8"/>
         <v>47523</v>
       </c>
       <c r="M267" s="1">
-        <f>L267*1.11</f>
+        <f t="shared" si="9"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N267" t="s">
@@ -14492,7 +14498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>107</v>
       </c>
@@ -14527,11 +14533,11 @@
         <v>0</v>
       </c>
       <c r="L268" s="1">
-        <f>H268*I268</f>
+        <f t="shared" si="8"/>
         <v>18168</v>
       </c>
       <c r="M268" s="1">
-        <f>L268*1.11</f>
+        <f t="shared" si="9"/>
         <v>20166.480000000003</v>
       </c>
       <c r="N268" t="s">
@@ -14541,7 +14547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>108</v>
       </c>
@@ -14576,11 +14582,11 @@
         <v>0</v>
       </c>
       <c r="L269" s="1">
-        <f>H269*I269</f>
+        <f t="shared" si="8"/>
         <v>30270</v>
       </c>
       <c r="M269" s="1">
-        <f>L269*1.11</f>
+        <f t="shared" si="9"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N269" t="s">
@@ -14590,7 +14596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>108</v>
       </c>
@@ -14625,11 +14631,11 @@
         <v>0</v>
       </c>
       <c r="L270" s="1">
-        <f>H270*I270</f>
+        <f t="shared" si="8"/>
         <v>30270</v>
       </c>
       <c r="M270" s="1">
-        <f>L270*1.11</f>
+        <f t="shared" si="9"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N270" t="s">
@@ -14639,7 +14645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>108</v>
       </c>
@@ -14674,11 +14680,11 @@
         <v>0</v>
       </c>
       <c r="L271" s="1">
-        <f>H271*I271</f>
+        <f t="shared" si="8"/>
         <v>30270</v>
       </c>
       <c r="M271" s="1">
-        <f>L271*1.11</f>
+        <f t="shared" si="9"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N271" t="s">
@@ -14688,7 +14694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>108</v>
       </c>
@@ -14723,11 +14729,11 @@
         <v>0</v>
       </c>
       <c r="L272" s="1">
-        <f>H272*I272</f>
+        <f t="shared" si="8"/>
         <v>30270</v>
       </c>
       <c r="M272" s="1">
-        <f>L272*1.11</f>
+        <f t="shared" si="9"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N272" t="s">
@@ -14737,7 +14743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>108</v>
       </c>
@@ -14772,11 +14778,11 @@
         <v>0</v>
       </c>
       <c r="L273" s="1">
-        <f>H273*I273</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M273" s="1">
-        <f>L273*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N273" t="s">
@@ -14786,7 +14792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>108</v>
       </c>
@@ -14821,11 +14827,11 @@
         <v>0</v>
       </c>
       <c r="L274" s="1">
-        <f>H274*I274</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M274" s="1">
-        <f>L274*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N274" t="s">
@@ -14835,7 +14841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>108</v>
       </c>
@@ -14870,11 +14876,11 @@
         <v>0</v>
       </c>
       <c r="L275" s="1">
-        <f>H275*I275</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M275" s="1">
-        <f>L275*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N275" t="s">
@@ -14884,7 +14890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>108</v>
       </c>
@@ -14919,11 +14925,11 @@
         <v>0</v>
       </c>
       <c r="L276" s="1">
-        <f>H276*I276</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M276" s="1">
-        <f>L276*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N276" t="s">
@@ -14933,7 +14939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>109</v>
       </c>
@@ -14968,11 +14974,11 @@
         <v>0</v>
       </c>
       <c r="L277" s="1">
-        <f>H277*I277</f>
+        <f t="shared" si="8"/>
         <v>47523</v>
       </c>
       <c r="M277" s="1">
-        <f>L277*1.11</f>
+        <f t="shared" si="9"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N277" t="s">
@@ -14982,7 +14988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>110</v>
       </c>
@@ -15017,11 +15023,11 @@
         <v>0</v>
       </c>
       <c r="L278" s="1">
-        <f>H278*I278</f>
+        <f t="shared" si="8"/>
         <v>7062</v>
       </c>
       <c r="M278" s="1">
-        <f>L278*1.11</f>
+        <f t="shared" si="9"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N278" t="s">
@@ -15031,7 +15037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>110</v>
       </c>
@@ -15066,11 +15072,11 @@
         <v>0</v>
       </c>
       <c r="L279" s="1">
-        <f>H279*I279</f>
+        <f t="shared" si="8"/>
         <v>9416</v>
       </c>
       <c r="M279" s="1">
-        <f>L279*1.11</f>
+        <f t="shared" si="9"/>
         <v>10451.76</v>
       </c>
       <c r="N279" t="s">
@@ -15080,7 +15086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>110</v>
       </c>
@@ -15115,11 +15121,11 @@
         <v>0</v>
       </c>
       <c r="L280" s="1">
-        <f>H280*I280</f>
+        <f t="shared" si="8"/>
         <v>7062</v>
       </c>
       <c r="M280" s="1">
-        <f>L280*1.11</f>
+        <f t="shared" si="9"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N280" t="s">
@@ -15129,7 +15135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>110</v>
       </c>
@@ -15164,11 +15170,11 @@
         <v>0</v>
       </c>
       <c r="L281" s="1">
-        <f>H281*I281</f>
+        <f t="shared" si="8"/>
         <v>8409</v>
       </c>
       <c r="M281" s="1">
-        <f>L281*1.11</f>
+        <f t="shared" si="9"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N281" t="s">
@@ -15178,7 +15184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>110</v>
       </c>
@@ -15213,11 +15219,11 @@
         <v>0</v>
       </c>
       <c r="L282" s="1">
-        <f>H282*I282</f>
+        <f t="shared" si="8"/>
         <v>8409</v>
       </c>
       <c r="M282" s="1">
-        <f>L282*1.11</f>
+        <f t="shared" si="9"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N282" t="s">
@@ -15227,7 +15233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>110</v>
       </c>
@@ -15262,11 +15268,11 @@
         <v>0</v>
       </c>
       <c r="L283" s="1">
-        <f>H283*I283</f>
+        <f t="shared" si="8"/>
         <v>8409</v>
       </c>
       <c r="M283" s="1">
-        <f>L283*1.11</f>
+        <f t="shared" si="9"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N283" t="s">
@@ -15276,7 +15282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>111</v>
       </c>
@@ -15311,11 +15317,11 @@
         <v>0</v>
       </c>
       <c r="L284" s="1">
-        <f>H284*I284</f>
+        <f t="shared" si="8"/>
         <v>52976</v>
       </c>
       <c r="M284" s="1">
-        <f>L284*1.11</f>
+        <f t="shared" si="9"/>
         <v>58803.360000000008</v>
       </c>
       <c r="N284" t="s">
@@ -15325,7 +15331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>112</v>
       </c>
@@ -15360,11 +15366,11 @@
         <v>0</v>
       </c>
       <c r="L285" s="1">
-        <f>H285*I285</f>
+        <f t="shared" si="8"/>
         <v>23540</v>
       </c>
       <c r="M285" s="1">
-        <f>L285*1.11</f>
+        <f t="shared" si="9"/>
         <v>26129.4</v>
       </c>
       <c r="N285" t="s">
@@ -15374,7 +15380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>112</v>
       </c>
@@ -15409,11 +15415,11 @@
         <v>0</v>
       </c>
       <c r="L286" s="1">
-        <f>H286*I286</f>
+        <f t="shared" si="8"/>
         <v>23540</v>
       </c>
       <c r="M286" s="1">
-        <f>L286*1.11</f>
+        <f t="shared" si="9"/>
         <v>26129.4</v>
       </c>
       <c r="N286" t="s">
@@ -15423,7 +15429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>112</v>
       </c>
@@ -15458,11 +15464,11 @@
         <v>0</v>
       </c>
       <c r="L287" s="1">
-        <f>H287*I287</f>
+        <f t="shared" si="8"/>
         <v>18168</v>
       </c>
       <c r="M287" s="1">
-        <f>L287*1.11</f>
+        <f t="shared" si="9"/>
         <v>20166.480000000003</v>
       </c>
       <c r="N287" t="s">
@@ -15472,7 +15478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>112</v>
       </c>
@@ -15507,11 +15513,11 @@
         <v>0</v>
       </c>
       <c r="L288" s="1">
-        <f>H288*I288</f>
+        <f t="shared" si="8"/>
         <v>18168</v>
       </c>
       <c r="M288" s="1">
-        <f>L288*1.11</f>
+        <f t="shared" si="9"/>
         <v>20166.480000000003</v>
       </c>
       <c r="N288" t="s">
@@ -15521,7 +15527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>113</v>
       </c>
@@ -15556,11 +15562,11 @@
         <v>0</v>
       </c>
       <c r="L289" s="1">
-        <f>H289*I289</f>
+        <f t="shared" si="8"/>
         <v>33636</v>
       </c>
       <c r="M289" s="1">
-        <f>L289*1.11</f>
+        <f t="shared" si="9"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N289" t="s">
@@ -15570,7 +15576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>113</v>
       </c>
@@ -15605,11 +15611,11 @@
         <v>0</v>
       </c>
       <c r="L290" s="1">
-        <f>H290*I290</f>
+        <f t="shared" si="8"/>
         <v>33636</v>
       </c>
       <c r="M290" s="1">
-        <f>L290*1.11</f>
+        <f t="shared" si="9"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N290" t="s">
@@ -15619,7 +15625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>113</v>
       </c>
@@ -15654,11 +15660,11 @@
         <v>0</v>
       </c>
       <c r="L291" s="1">
-        <f>H291*I291</f>
+        <f t="shared" si="8"/>
         <v>33636</v>
       </c>
       <c r="M291" s="1">
-        <f>L291*1.11</f>
+        <f t="shared" si="9"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N291" t="s">
@@ -15668,7 +15674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>113</v>
       </c>
@@ -15703,11 +15709,11 @@
         <v>0</v>
       </c>
       <c r="L292" s="1">
-        <f>H292*I292</f>
+        <f t="shared" si="8"/>
         <v>33636</v>
       </c>
       <c r="M292" s="1">
-        <f>L292*1.11</f>
+        <f t="shared" si="9"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N292" t="s">
@@ -15717,7 +15723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>114</v>
       </c>
@@ -15752,11 +15758,11 @@
         <v>0</v>
       </c>
       <c r="L293" s="1">
-        <f>H293*I293</f>
+        <f t="shared" si="8"/>
         <v>30270</v>
       </c>
       <c r="M293" s="1">
-        <f>L293*1.11</f>
+        <f t="shared" si="9"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N293" t="s">
@@ -15766,7 +15772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>114</v>
       </c>
@@ -15801,11 +15807,11 @@
         <v>0</v>
       </c>
       <c r="L294" s="1">
-        <f>H294*I294</f>
+        <f t="shared" si="8"/>
         <v>47523</v>
       </c>
       <c r="M294" s="1">
-        <f>L294*1.11</f>
+        <f t="shared" si="9"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N294" t="s">
@@ -15815,7 +15821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>115</v>
       </c>
@@ -15850,11 +15856,11 @@
         <v>0</v>
       </c>
       <c r="L295" s="1">
-        <f>H295*I295</f>
+        <f t="shared" si="8"/>
         <v>33636</v>
       </c>
       <c r="M295" s="1">
-        <f>L295*1.11</f>
+        <f t="shared" si="9"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N295" t="s">
@@ -15864,7 +15870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>115</v>
       </c>
@@ -15899,11 +15905,11 @@
         <v>0</v>
       </c>
       <c r="L296" s="1">
-        <f>H296*I296</f>
+        <f t="shared" si="8"/>
         <v>33636</v>
       </c>
       <c r="M296" s="1">
-        <f>L296*1.11</f>
+        <f t="shared" si="9"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N296" t="s">
@@ -15913,7 +15919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>115</v>
       </c>
@@ -15948,11 +15954,11 @@
         <v>0</v>
       </c>
       <c r="L297" s="1">
-        <f>H297*I297</f>
+        <f t="shared" si="8"/>
         <v>33636</v>
       </c>
       <c r="M297" s="1">
-        <f>L297*1.11</f>
+        <f t="shared" si="9"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N297" t="s">
@@ -15962,7 +15968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>115</v>
       </c>
@@ -15997,11 +16003,11 @@
         <v>0</v>
       </c>
       <c r="L298" s="1">
-        <f>H298*I298</f>
+        <f t="shared" si="8"/>
         <v>33636</v>
       </c>
       <c r="M298" s="1">
-        <f>L298*1.11</f>
+        <f t="shared" si="9"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N298" t="s">
@@ -16011,7 +16017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>116</v>
       </c>
@@ -16046,11 +16052,11 @@
         <v>0</v>
       </c>
       <c r="L299" s="1">
-        <f>H299*I299</f>
+        <f t="shared" si="8"/>
         <v>47523</v>
       </c>
       <c r="M299" s="1">
-        <f>L299*1.11</f>
+        <f t="shared" si="9"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N299" t="s">
@@ -16060,7 +16066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>116</v>
       </c>
@@ -16095,11 +16101,11 @@
         <v>0</v>
       </c>
       <c r="L300" s="1">
-        <f>H300*I300</f>
+        <f t="shared" si="8"/>
         <v>16818</v>
       </c>
       <c r="M300" s="1">
-        <f>L300*1.11</f>
+        <f t="shared" si="9"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N300" t="s">
@@ -16109,7 +16115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>117</v>
       </c>
@@ -16144,11 +16150,11 @@
         <v>0</v>
       </c>
       <c r="L301" s="1">
-        <f>H301*I301</f>
+        <f t="shared" si="8"/>
         <v>109008</v>
       </c>
       <c r="M301" s="1">
-        <f>L301*1.11</f>
+        <f t="shared" si="9"/>
         <v>120998.88</v>
       </c>
       <c r="N301" t="s">
@@ -16158,7 +16164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>117</v>
       </c>
@@ -16193,11 +16199,11 @@
         <v>0</v>
       </c>
       <c r="L302" s="1">
-        <f>H302*I302</f>
+        <f t="shared" si="8"/>
         <v>109008</v>
       </c>
       <c r="M302" s="1">
-        <f>L302*1.11</f>
+        <f t="shared" si="9"/>
         <v>120998.88</v>
       </c>
       <c r="N302" t="s">
@@ -16207,7 +16213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>118</v>
       </c>
@@ -16242,11 +16248,11 @@
         <v>0</v>
       </c>
       <c r="L303" s="1">
-        <f>H303*I303</f>
+        <f t="shared" si="8"/>
         <v>47523</v>
       </c>
       <c r="M303" s="1">
-        <f>L303*1.11</f>
+        <f t="shared" si="9"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N303" t="s">
@@ -16256,7 +16262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>119</v>
       </c>
@@ -16291,11 +16297,11 @@
         <v>0</v>
       </c>
       <c r="L304" s="1">
-        <f>H304*I304</f>
+        <f t="shared" si="8"/>
         <v>22704</v>
       </c>
       <c r="M304" s="1">
-        <f>L304*1.11</f>
+        <f t="shared" si="9"/>
         <v>25201.440000000002</v>
       </c>
       <c r="N304" t="s">
@@ -16305,7 +16311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>119</v>
       </c>
@@ -16340,11 +16346,11 @@
         <v>0</v>
       </c>
       <c r="L305" s="1">
-        <f>H305*I305</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M305" s="1">
-        <f>L305*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N305" t="s">
@@ -16354,7 +16360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>119</v>
       </c>
@@ -16389,11 +16395,11 @@
         <v>0</v>
       </c>
       <c r="L306" s="1">
-        <f>H306*I306</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M306" s="1">
-        <f>L306*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N306" t="s">
@@ -16403,7 +16409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>119</v>
       </c>
@@ -16438,11 +16444,11 @@
         <v>0</v>
       </c>
       <c r="L307" s="1">
-        <f>H307*I307</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M307" s="1">
-        <f>L307*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N307" t="s">
@@ -16452,7 +16458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>119</v>
       </c>
@@ -16487,11 +16493,11 @@
         <v>0</v>
       </c>
       <c r="L308" s="1">
-        <f>H308*I308</f>
+        <f t="shared" si="8"/>
         <v>16818</v>
       </c>
       <c r="M308" s="1">
-        <f>L308*1.11</f>
+        <f t="shared" si="9"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N308" t="s">
@@ -16501,7 +16507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>119</v>
       </c>
@@ -16536,11 +16542,11 @@
         <v>0</v>
       </c>
       <c r="L309" s="1">
-        <f>H309*I309</f>
+        <f t="shared" si="8"/>
         <v>16818</v>
       </c>
       <c r="M309" s="1">
-        <f>L309*1.11</f>
+        <f t="shared" si="9"/>
         <v>18667.980000000003</v>
       </c>
       <c r="N309" t="s">
@@ -16550,7 +16556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>120</v>
       </c>
@@ -16585,11 +16591,11 @@
         <v>0</v>
       </c>
       <c r="L310" s="1">
-        <f>H310*I310</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M310" s="1">
-        <f>L310*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N310" t="s">
@@ -16599,7 +16605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>120</v>
       </c>
@@ -16634,11 +16640,11 @@
         <v>0</v>
       </c>
       <c r="L311" s="1">
-        <f>H311*I311</f>
+        <f t="shared" si="8"/>
         <v>7062</v>
       </c>
       <c r="M311" s="1">
-        <f>L311*1.11</f>
+        <f t="shared" si="9"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N311" t="s">
@@ -16648,7 +16654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>120</v>
       </c>
@@ -16683,11 +16689,11 @@
         <v>0</v>
       </c>
       <c r="L312" s="1">
-        <f>H312*I312</f>
+        <f t="shared" si="8"/>
         <v>9416</v>
       </c>
       <c r="M312" s="1">
-        <f>L312*1.11</f>
+        <f t="shared" si="9"/>
         <v>10451.76</v>
       </c>
       <c r="N312" t="s">
@@ -16697,7 +16703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>120</v>
       </c>
@@ -16732,11 +16738,11 @@
         <v>0</v>
       </c>
       <c r="L313" s="1">
-        <f>H313*I313</f>
+        <f t="shared" si="8"/>
         <v>7062</v>
       </c>
       <c r="M313" s="1">
-        <f>L313*1.11</f>
+        <f t="shared" si="9"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N313" t="s">
@@ -16746,7 +16752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>121</v>
       </c>
@@ -16781,11 +16787,11 @@
         <v>0</v>
       </c>
       <c r="L314" s="1">
-        <f>H314*I314</f>
+        <f t="shared" si="8"/>
         <v>30270</v>
       </c>
       <c r="M314" s="1">
-        <f>L314*1.11</f>
+        <f t="shared" si="9"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N314" t="s">
@@ -16795,7 +16801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>121</v>
       </c>
@@ -16830,11 +16836,11 @@
         <v>0</v>
       </c>
       <c r="L315" s="1">
-        <f>H315*I315</f>
+        <f t="shared" si="8"/>
         <v>30270</v>
       </c>
       <c r="M315" s="1">
-        <f>L315*1.11</f>
+        <f t="shared" si="9"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N315" t="s">
@@ -16844,7 +16850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>121</v>
       </c>
@@ -16879,11 +16885,11 @@
         <v>0</v>
       </c>
       <c r="L316" s="1">
-        <f>H316*I316</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M316" s="1">
-        <f>L316*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N316" t="s">
@@ -16893,7 +16899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>121</v>
       </c>
@@ -16928,11 +16934,11 @@
         <v>0</v>
       </c>
       <c r="L317" s="1">
-        <f>H317*I317</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M317" s="1">
-        <f>L317*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N317" t="s">
@@ -16942,7 +16948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>121</v>
       </c>
@@ -16977,11 +16983,11 @@
         <v>0</v>
       </c>
       <c r="L318" s="1">
-        <f>H318*I318</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M318" s="1">
-        <f>L318*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N318" t="s">
@@ -16991,7 +16997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>122</v>
       </c>
@@ -17026,11 +17032,11 @@
         <v>0</v>
       </c>
       <c r="L319" s="1">
-        <f>H319*I319</f>
+        <f t="shared" si="8"/>
         <v>109998</v>
       </c>
       <c r="M319" s="1">
-        <f>L319*1.11</f>
+        <f t="shared" si="9"/>
         <v>122097.78000000001</v>
       </c>
       <c r="N319" t="s">
@@ -17040,7 +17046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>123</v>
       </c>
@@ -17075,11 +17081,11 @@
         <v>0</v>
       </c>
       <c r="L320" s="1">
-        <f>H320*I320</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M320" s="1">
-        <f>L320*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N320" t="s">
@@ -17089,7 +17095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>123</v>
       </c>
@@ -17124,11 +17130,11 @@
         <v>0</v>
       </c>
       <c r="L321" s="1">
-        <f>H321*I321</f>
+        <f t="shared" si="8"/>
         <v>36666</v>
       </c>
       <c r="M321" s="1">
-        <f>L321*1.11</f>
+        <f t="shared" si="9"/>
         <v>40699.26</v>
       </c>
       <c r="N321" t="s">
@@ -17138,7 +17144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>123</v>
       </c>
@@ -17173,11 +17179,11 @@
         <v>0</v>
       </c>
       <c r="L322" s="1">
-        <f>H322*I322</f>
+        <f t="shared" ref="L322:L385" si="10">H322*I322</f>
         <v>36666</v>
       </c>
       <c r="M322" s="1">
-        <f>L322*1.11</f>
+        <f t="shared" ref="M322:M385" si="11">L322*1.11</f>
         <v>40699.26</v>
       </c>
       <c r="N322" t="s">
@@ -17187,7 +17193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>124</v>
       </c>
@@ -17222,11 +17228,11 @@
         <v>0</v>
       </c>
       <c r="L323" s="1">
-        <f>H323*I323</f>
+        <f t="shared" si="10"/>
         <v>30270</v>
       </c>
       <c r="M323" s="1">
-        <f>L323*1.11</f>
+        <f t="shared" si="11"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N323" t="s">
@@ -17236,7 +17242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>124</v>
       </c>
@@ -17271,11 +17277,11 @@
         <v>0</v>
       </c>
       <c r="L324" s="1">
-        <f>H324*I324</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M324" s="1">
-        <f>L324*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N324" t="s">
@@ -17285,7 +17291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>124</v>
       </c>
@@ -17320,11 +17326,11 @@
         <v>0</v>
       </c>
       <c r="L325" s="1">
-        <f>H325*I325</f>
+        <f t="shared" si="10"/>
         <v>23540</v>
       </c>
       <c r="M325" s="1">
-        <f>L325*1.11</f>
+        <f t="shared" si="11"/>
         <v>26129.4</v>
       </c>
       <c r="N325" t="s">
@@ -17334,7 +17340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>125</v>
       </c>
@@ -17369,11 +17375,11 @@
         <v>0</v>
       </c>
       <c r="L326" s="1">
-        <f>H326*I326</f>
+        <f t="shared" si="10"/>
         <v>190092</v>
       </c>
       <c r="M326" s="1">
-        <f>L326*1.11</f>
+        <f t="shared" si="11"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N326" t="s">
@@ -17383,7 +17389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>126</v>
       </c>
@@ -17418,11 +17424,11 @@
         <v>0</v>
       </c>
       <c r="L327" s="1">
-        <f>H327*I327</f>
+        <f t="shared" si="10"/>
         <v>48920</v>
       </c>
       <c r="M327" s="1">
-        <f>L327*1.11</f>
+        <f t="shared" si="11"/>
         <v>54301.200000000004</v>
       </c>
       <c r="N327" t="s">
@@ -17432,7 +17438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>127</v>
       </c>
@@ -17467,11 +17473,11 @@
         <v>0</v>
       </c>
       <c r="L328" s="1">
-        <f>H328*I328</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M328" s="1">
-        <f>L328*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N328" t="s">
@@ -17481,7 +17487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>127</v>
       </c>
@@ -17516,11 +17522,11 @@
         <v>0</v>
       </c>
       <c r="L329" s="1">
-        <f>H329*I329</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M329" s="1">
-        <f>L329*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N329" t="s">
@@ -17530,7 +17536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>127</v>
       </c>
@@ -17565,11 +17571,11 @@
         <v>0</v>
       </c>
       <c r="L330" s="1">
-        <f>H330*I330</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M330" s="1">
-        <f>L330*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N330" t="s">
@@ -17579,7 +17585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>127</v>
       </c>
@@ -17614,11 +17620,11 @@
         <v>0</v>
       </c>
       <c r="L331" s="1">
-        <f>H331*I331</f>
+        <f t="shared" si="10"/>
         <v>54504</v>
       </c>
       <c r="M331" s="1">
-        <f>L331*1.11</f>
+        <f t="shared" si="11"/>
         <v>60499.44</v>
       </c>
       <c r="N331" t="s">
@@ -17628,7 +17634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>128</v>
       </c>
@@ -17663,11 +17669,11 @@
         <v>0</v>
       </c>
       <c r="L332" s="1">
-        <f>H332*I332</f>
+        <f t="shared" si="10"/>
         <v>30270</v>
       </c>
       <c r="M332" s="1">
-        <f>L332*1.11</f>
+        <f t="shared" si="11"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N332" t="s">
@@ -17677,7 +17683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>128</v>
       </c>
@@ -17712,11 +17718,11 @@
         <v>0</v>
       </c>
       <c r="L333" s="1">
-        <f>H333*I333</f>
+        <f t="shared" si="10"/>
         <v>30270</v>
       </c>
       <c r="M333" s="1">
-        <f>L333*1.11</f>
+        <f t="shared" si="11"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N333" t="s">
@@ -17726,7 +17732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>129</v>
       </c>
@@ -17761,11 +17767,11 @@
         <v>0</v>
       </c>
       <c r="L334" s="1">
-        <f>H334*I334</f>
+        <f t="shared" si="10"/>
         <v>190092</v>
       </c>
       <c r="M334" s="1">
-        <f>L334*1.11</f>
+        <f t="shared" si="11"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N334" t="s">
@@ -17775,7 +17781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>130</v>
       </c>
@@ -17810,11 +17816,11 @@
         <v>0</v>
       </c>
       <c r="L335" s="1">
-        <f>H335*I335</f>
+        <f t="shared" si="10"/>
         <v>45410</v>
       </c>
       <c r="M335" s="1">
-        <f>L335*1.11</f>
+        <f t="shared" si="11"/>
         <v>50405.100000000006</v>
       </c>
       <c r="N335" t="s">
@@ -17824,7 +17830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>131</v>
       </c>
@@ -17859,11 +17865,11 @@
         <v>0</v>
       </c>
       <c r="L336" s="1">
-        <f>H336*I336</f>
+        <f t="shared" si="10"/>
         <v>18168</v>
       </c>
       <c r="M336" s="1">
-        <f>L336*1.11</f>
+        <f t="shared" si="11"/>
         <v>20166.480000000003</v>
       </c>
       <c r="N336" t="s">
@@ -17873,7 +17879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>131</v>
       </c>
@@ -17908,11 +17914,11 @@
         <v>0</v>
       </c>
       <c r="L337" s="1">
-        <f>H337*I337</f>
+        <f t="shared" si="10"/>
         <v>18168</v>
       </c>
       <c r="M337" s="1">
-        <f>L337*1.11</f>
+        <f t="shared" si="11"/>
         <v>20166.480000000003</v>
       </c>
       <c r="N337" t="s">
@@ -17922,7 +17928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>132</v>
       </c>
@@ -17957,11 +17963,11 @@
         <v>0</v>
       </c>
       <c r="L338" s="1">
-        <f>H338*I338</f>
+        <f t="shared" si="10"/>
         <v>95046</v>
       </c>
       <c r="M338" s="1">
-        <f>L338*1.11</f>
+        <f t="shared" si="11"/>
         <v>105501.06000000001</v>
       </c>
       <c r="N338" t="s">
@@ -17971,7 +17977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>133</v>
       </c>
@@ -18006,11 +18012,11 @@
         <v>0</v>
       </c>
       <c r="L339" s="1">
-        <f>H339*I339</f>
+        <f t="shared" si="10"/>
         <v>4708</v>
       </c>
       <c r="M339" s="1">
-        <f>L339*1.11</f>
+        <f t="shared" si="11"/>
         <v>5225.88</v>
       </c>
       <c r="N339" t="s">
@@ -18020,7 +18026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>133</v>
       </c>
@@ -18055,11 +18061,11 @@
         <v>0</v>
       </c>
       <c r="L340" s="1">
-        <f>H340*I340</f>
+        <f t="shared" si="10"/>
         <v>4708</v>
       </c>
       <c r="M340" s="1">
-        <f>L340*1.11</f>
+        <f t="shared" si="11"/>
         <v>5225.88</v>
       </c>
       <c r="N340" t="s">
@@ -18069,7 +18075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>133</v>
       </c>
@@ -18104,11 +18110,11 @@
         <v>0</v>
       </c>
       <c r="L341" s="1">
-        <f>H341*I341</f>
+        <f t="shared" si="10"/>
         <v>7062</v>
       </c>
       <c r="M341" s="1">
-        <f>L341*1.11</f>
+        <f t="shared" si="11"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N341" t="s">
@@ -18118,7 +18124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>133</v>
       </c>
@@ -18153,11 +18159,11 @@
         <v>0</v>
       </c>
       <c r="L342" s="1">
-        <f>H342*I342</f>
+        <f t="shared" si="10"/>
         <v>9416</v>
       </c>
       <c r="M342" s="1">
-        <f>L342*1.11</f>
+        <f t="shared" si="11"/>
         <v>10451.76</v>
       </c>
       <c r="N342" t="s">
@@ -18167,7 +18173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>133</v>
       </c>
@@ -18202,11 +18208,11 @@
         <v>0</v>
       </c>
       <c r="L343" s="1">
-        <f>H343*I343</f>
+        <f t="shared" si="10"/>
         <v>18168</v>
       </c>
       <c r="M343" s="1">
-        <f>L343*1.11</f>
+        <f t="shared" si="11"/>
         <v>20166.480000000003</v>
       </c>
       <c r="N343" t="s">
@@ -18216,7 +18222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>134</v>
       </c>
@@ -18251,11 +18257,11 @@
         <v>0</v>
       </c>
       <c r="L344" s="1">
-        <f>H344*I344</f>
+        <f t="shared" si="10"/>
         <v>30270</v>
       </c>
       <c r="M344" s="1">
-        <f>L344*1.11</f>
+        <f t="shared" si="11"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N344" t="s">
@@ -18265,7 +18271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>134</v>
       </c>
@@ -18300,11 +18306,11 @@
         <v>0</v>
       </c>
       <c r="L345" s="1">
-        <f>H345*I345</f>
+        <f t="shared" si="10"/>
         <v>30270</v>
       </c>
       <c r="M345" s="1">
-        <f>L345*1.11</f>
+        <f t="shared" si="11"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N345" t="s">
@@ -18314,7 +18320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>134</v>
       </c>
@@ -18349,11 +18355,11 @@
         <v>0</v>
       </c>
       <c r="L346" s="1">
-        <f>H346*I346</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M346" s="1">
-        <f>L346*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N346" t="s">
@@ -18363,7 +18369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>134</v>
       </c>
@@ -18398,11 +18404,11 @@
         <v>0</v>
       </c>
       <c r="L347" s="1">
-        <f>H347*I347</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M347" s="1">
-        <f>L347*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N347" t="s">
@@ -18412,7 +18418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>135</v>
       </c>
@@ -18447,11 +18453,11 @@
         <v>0</v>
       </c>
       <c r="L348" s="1">
-        <f>H348*I348</f>
+        <f t="shared" si="10"/>
         <v>14120</v>
       </c>
       <c r="M348" s="1">
-        <f>L348*1.11</f>
+        <f t="shared" si="11"/>
         <v>15673.2</v>
       </c>
       <c r="N348" t="s">
@@ -18461,7 +18467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>135</v>
       </c>
@@ -18496,11 +18502,11 @@
         <v>0</v>
       </c>
       <c r="L349" s="1">
-        <f>H349*I349</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M349" s="1">
-        <f>L349*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N349" t="s">
@@ -18510,7 +18516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>135</v>
       </c>
@@ -18545,11 +18551,11 @@
         <v>0</v>
       </c>
       <c r="L350" s="1">
-        <f>H350*I350</f>
+        <f t="shared" si="10"/>
         <v>47523</v>
       </c>
       <c r="M350" s="1">
-        <f>L350*1.11</f>
+        <f t="shared" si="11"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N350" t="s">
@@ -18559,7 +18565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>136</v>
       </c>
@@ -18594,11 +18600,11 @@
         <v>0</v>
       </c>
       <c r="L351" s="1">
-        <f>H351*I351</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M351" s="1">
-        <f>L351*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N351" t="s">
@@ -18608,7 +18614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>136</v>
       </c>
@@ -18643,11 +18649,11 @@
         <v>0</v>
       </c>
       <c r="L352" s="1">
-        <f>H352*I352</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M352" s="1">
-        <f>L352*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N352" t="s">
@@ -18657,7 +18663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>136</v>
       </c>
@@ -18692,11 +18698,11 @@
         <v>0</v>
       </c>
       <c r="L353" s="1">
-        <f>H353*I353</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M353" s="1">
-        <f>L353*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N353" t="s">
@@ -18706,7 +18712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>136</v>
       </c>
@@ -18741,11 +18747,11 @@
         <v>0</v>
       </c>
       <c r="L354" s="1">
-        <f>H354*I354</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M354" s="1">
-        <f>L354*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N354" t="s">
@@ -18755,7 +18761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>136</v>
       </c>
@@ -18790,11 +18796,11 @@
         <v>0</v>
       </c>
       <c r="L355" s="1">
-        <f>H355*I355</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M355" s="1">
-        <f>L355*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N355" t="s">
@@ -18804,7 +18810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>137</v>
       </c>
@@ -18839,11 +18845,11 @@
         <v>0</v>
       </c>
       <c r="L356" s="1">
-        <f>H356*I356</f>
+        <f t="shared" si="10"/>
         <v>14120</v>
       </c>
       <c r="M356" s="1">
-        <f>L356*1.11</f>
+        <f t="shared" si="11"/>
         <v>15673.2</v>
       </c>
       <c r="N356" t="s">
@@ -18853,7 +18859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>137</v>
       </c>
@@ -18888,11 +18894,11 @@
         <v>0</v>
       </c>
       <c r="L357" s="1">
-        <f>H357*I357</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M357" s="1">
-        <f>L357*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N357" t="s">
@@ -18902,7 +18908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>137</v>
       </c>
@@ -18937,11 +18943,11 @@
         <v>0</v>
       </c>
       <c r="L358" s="1">
-        <f>H358*I358</f>
+        <f t="shared" si="10"/>
         <v>22705</v>
       </c>
       <c r="M358" s="1">
-        <f>L358*1.11</f>
+        <f t="shared" si="11"/>
         <v>25202.550000000003</v>
       </c>
       <c r="N358" t="s">
@@ -18951,7 +18957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>138</v>
       </c>
@@ -18986,11 +18992,11 @@
         <v>0</v>
       </c>
       <c r="L359" s="1">
-        <f>H359*I359</f>
+        <f t="shared" si="10"/>
         <v>33636</v>
       </c>
       <c r="M359" s="1">
-        <f>L359*1.11</f>
+        <f t="shared" si="11"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N359" t="s">
@@ -19000,7 +19006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>138</v>
       </c>
@@ -19035,11 +19041,11 @@
         <v>0</v>
       </c>
       <c r="L360" s="1">
-        <f>H360*I360</f>
+        <f t="shared" si="10"/>
         <v>33636</v>
       </c>
       <c r="M360" s="1">
-        <f>L360*1.11</f>
+        <f t="shared" si="11"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N360" t="s">
@@ -19049,7 +19055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>138</v>
       </c>
@@ -19084,11 +19090,11 @@
         <v>0</v>
       </c>
       <c r="L361" s="1">
-        <f>H361*I361</f>
+        <f t="shared" si="10"/>
         <v>33636</v>
       </c>
       <c r="M361" s="1">
-        <f>L361*1.11</f>
+        <f t="shared" si="11"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N361" t="s">
@@ -19098,7 +19104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>139</v>
       </c>
@@ -19133,11 +19139,11 @@
         <v>0</v>
       </c>
       <c r="L362" s="1">
-        <f>H362*I362</f>
+        <f t="shared" si="10"/>
         <v>16944</v>
       </c>
       <c r="M362" s="1">
-        <f>L362*1.11</f>
+        <f t="shared" si="11"/>
         <v>18807.84</v>
       </c>
       <c r="N362" t="s">
@@ -19147,7 +19153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>139</v>
       </c>
@@ -19182,11 +19188,11 @@
         <v>0</v>
       </c>
       <c r="L363" s="1">
-        <f>H363*I363</f>
+        <f t="shared" si="10"/>
         <v>6054</v>
       </c>
       <c r="M363" s="1">
-        <f>L363*1.11</f>
+        <f t="shared" si="11"/>
         <v>6719.9400000000005</v>
       </c>
       <c r="N363" t="s">
@@ -19196,7 +19202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>139</v>
       </c>
@@ -19231,11 +19237,11 @@
         <v>0</v>
       </c>
       <c r="L364" s="1">
-        <f>H364*I364</f>
+        <f t="shared" si="10"/>
         <v>12108</v>
       </c>
       <c r="M364" s="1">
-        <f>L364*1.11</f>
+        <f t="shared" si="11"/>
         <v>13439.880000000001</v>
       </c>
       <c r="N364" t="s">
@@ -19245,7 +19251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>139</v>
       </c>
@@ -19280,11 +19286,11 @@
         <v>0</v>
       </c>
       <c r="L365" s="1">
-        <f>H365*I365</f>
+        <f t="shared" si="10"/>
         <v>12108</v>
       </c>
       <c r="M365" s="1">
-        <f>L365*1.11</f>
+        <f t="shared" si="11"/>
         <v>13439.880000000001</v>
       </c>
       <c r="N365" t="s">
@@ -19294,7 +19300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>139</v>
       </c>
@@ -19329,11 +19335,11 @@
         <v>0</v>
       </c>
       <c r="L366" s="1">
-        <f>H366*I366</f>
+        <f t="shared" si="10"/>
         <v>12230</v>
       </c>
       <c r="M366" s="1">
-        <f>L366*1.11</f>
+        <f t="shared" si="11"/>
         <v>13575.300000000001</v>
       </c>
       <c r="N366" t="s">
@@ -19343,7 +19349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>139</v>
       </c>
@@ -19378,11 +19384,11 @@
         <v>0</v>
       </c>
       <c r="L367" s="1">
-        <f>H367*I367</f>
+        <f t="shared" si="10"/>
         <v>27246</v>
       </c>
       <c r="M367" s="1">
-        <f>L367*1.11</f>
+        <f t="shared" si="11"/>
         <v>30243.06</v>
       </c>
       <c r="N367" t="s">
@@ -19392,7 +19398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>140</v>
       </c>
@@ -19427,11 +19433,11 @@
         <v>0</v>
       </c>
       <c r="L368" s="1">
-        <f>H368*I368</f>
+        <f t="shared" si="10"/>
         <v>47523</v>
       </c>
       <c r="M368" s="1">
-        <f>L368*1.11</f>
+        <f t="shared" si="11"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N368" t="s">
@@ -19441,7 +19447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>140</v>
       </c>
@@ -19476,11 +19482,11 @@
         <v>0</v>
       </c>
       <c r="L369" s="1">
-        <f>H369*I369</f>
+        <f t="shared" si="10"/>
         <v>33636</v>
       </c>
       <c r="M369" s="1">
-        <f>L369*1.11</f>
+        <f t="shared" si="11"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N369" t="s">
@@ -19490,7 +19496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>140</v>
       </c>
@@ -19525,11 +19531,11 @@
         <v>0</v>
       </c>
       <c r="L370" s="1">
-        <f>H370*I370</f>
+        <f t="shared" si="10"/>
         <v>18168</v>
       </c>
       <c r="M370" s="1">
-        <f>L370*1.11</f>
+        <f t="shared" si="11"/>
         <v>20166.480000000003</v>
       </c>
       <c r="N370" t="s">
@@ -19539,7 +19545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>140</v>
       </c>
@@ -19574,11 +19580,11 @@
         <v>0</v>
       </c>
       <c r="L371" s="1">
-        <f>H371*I371</f>
+        <f t="shared" si="10"/>
         <v>36336</v>
       </c>
       <c r="M371" s="1">
-        <f>L371*1.11</f>
+        <f t="shared" si="11"/>
         <v>40332.960000000006</v>
       </c>
       <c r="N371" t="s">
@@ -19588,7 +19594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>141</v>
       </c>
@@ -19623,11 +19629,11 @@
         <v>0</v>
       </c>
       <c r="L372" s="1">
-        <f>H372*I372</f>
+        <f t="shared" si="10"/>
         <v>30270</v>
       </c>
       <c r="M372" s="1">
-        <f>L372*1.11</f>
+        <f t="shared" si="11"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N372" t="s">
@@ -19637,7 +19643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>141</v>
       </c>
@@ -19672,11 +19678,11 @@
         <v>0</v>
       </c>
       <c r="L373" s="1">
-        <f>H373*I373</f>
+        <f t="shared" si="10"/>
         <v>30270</v>
       </c>
       <c r="M373" s="1">
-        <f>L373*1.11</f>
+        <f t="shared" si="11"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N373" t="s">
@@ -19686,7 +19692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>141</v>
       </c>
@@ -19721,11 +19727,11 @@
         <v>0</v>
       </c>
       <c r="L374" s="1">
-        <f>H374*I374</f>
+        <f t="shared" si="10"/>
         <v>33636</v>
       </c>
       <c r="M374" s="1">
-        <f>L374*1.11</f>
+        <f t="shared" si="11"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N374" t="s">
@@ -19735,7 +19741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>141</v>
       </c>
@@ -19770,11 +19776,11 @@
         <v>0</v>
       </c>
       <c r="L375" s="1">
-        <f>H375*I375</f>
+        <f t="shared" si="10"/>
         <v>33636</v>
       </c>
       <c r="M375" s="1">
-        <f>L375*1.11</f>
+        <f t="shared" si="11"/>
         <v>37335.960000000006</v>
       </c>
       <c r="N375" t="s">
@@ -19784,7 +19790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>142</v>
       </c>
@@ -19819,11 +19825,11 @@
         <v>0</v>
       </c>
       <c r="L376" s="1">
-        <f>H376*I376</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M376" s="1">
-        <f>L376*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N376" t="s">
@@ -19833,7 +19839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>142</v>
       </c>
@@ -19868,11 +19874,11 @@
         <v>0</v>
       </c>
       <c r="L377" s="1">
-        <f>H377*I377</f>
+        <f t="shared" si="10"/>
         <v>11770</v>
       </c>
       <c r="M377" s="1">
-        <f>L377*1.11</f>
+        <f t="shared" si="11"/>
         <v>13064.7</v>
       </c>
       <c r="N377" t="s">
@@ -19882,7 +19888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>142</v>
       </c>
@@ -19917,11 +19923,11 @@
         <v>0</v>
       </c>
       <c r="L378" s="1">
-        <f>H378*I378</f>
+        <f t="shared" si="10"/>
         <v>11770</v>
       </c>
       <c r="M378" s="1">
-        <f>L378*1.11</f>
+        <f t="shared" si="11"/>
         <v>13064.7</v>
       </c>
       <c r="N378" t="s">
@@ -19931,7 +19937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>143</v>
       </c>
@@ -19966,11 +19972,11 @@
         <v>0</v>
       </c>
       <c r="L379" s="1">
-        <f>H379*I379</f>
+        <f t="shared" si="10"/>
         <v>47523</v>
       </c>
       <c r="M379" s="1">
-        <f>L379*1.11</f>
+        <f t="shared" si="11"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N379" t="s">
@@ -19980,7 +19986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>144</v>
       </c>
@@ -20015,11 +20021,11 @@
         <v>0</v>
       </c>
       <c r="L380" s="1">
-        <f>H380*I380</f>
+        <f t="shared" si="10"/>
         <v>30270</v>
       </c>
       <c r="M380" s="1">
-        <f>L380*1.11</f>
+        <f t="shared" si="11"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N380" t="s">
@@ -20029,7 +20035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>144</v>
       </c>
@@ -20064,11 +20070,11 @@
         <v>0</v>
       </c>
       <c r="L381" s="1">
-        <f>H381*I381</f>
+        <f t="shared" si="10"/>
         <v>47523</v>
       </c>
       <c r="M381" s="1">
-        <f>L381*1.11</f>
+        <f t="shared" si="11"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N381" t="s">
@@ -20078,7 +20084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>145</v>
       </c>
@@ -20113,11 +20119,11 @@
         <v>0</v>
       </c>
       <c r="L382" s="1">
-        <f>H382*I382</f>
+        <f t="shared" si="10"/>
         <v>37840</v>
       </c>
       <c r="M382" s="1">
-        <f>L382*1.11</f>
+        <f t="shared" si="11"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N382" t="s">
@@ -20127,7 +20133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>145</v>
       </c>
@@ -20162,11 +20168,11 @@
         <v>0</v>
       </c>
       <c r="L383" s="1">
-        <f>H383*I383</f>
+        <f t="shared" si="10"/>
         <v>37840</v>
       </c>
       <c r="M383" s="1">
-        <f>L383*1.11</f>
+        <f t="shared" si="11"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N383" t="s">
@@ -20176,7 +20182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>145</v>
       </c>
@@ -20211,11 +20217,11 @@
         <v>0</v>
       </c>
       <c r="L384" s="1">
-        <f>H384*I384</f>
+        <f t="shared" si="10"/>
         <v>36666</v>
       </c>
       <c r="M384" s="1">
-        <f>L384*1.11</f>
+        <f t="shared" si="11"/>
         <v>40699.26</v>
       </c>
       <c r="N384" t="s">
@@ -20225,7 +20231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>145</v>
       </c>
@@ -20260,11 +20266,11 @@
         <v>0</v>
       </c>
       <c r="L385" s="1">
-        <f>H385*I385</f>
+        <f t="shared" si="10"/>
         <v>47523</v>
       </c>
       <c r="M385" s="1">
-        <f>L385*1.11</f>
+        <f t="shared" si="11"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N385" t="s">
@@ -20274,7 +20280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>146</v>
       </c>
@@ -20309,11 +20315,11 @@
         <v>0</v>
       </c>
       <c r="L386" s="1">
-        <f>H386*I386</f>
+        <f t="shared" ref="L386:L413" si="12">H386*I386</f>
         <v>37840</v>
       </c>
       <c r="M386" s="1">
-        <f>L386*1.11</f>
+        <f t="shared" ref="M386:M449" si="13">L386*1.11</f>
         <v>42002.400000000001</v>
       </c>
       <c r="N386" t="s">
@@ -20323,7 +20329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>146</v>
       </c>
@@ -20358,11 +20364,11 @@
         <v>0</v>
       </c>
       <c r="L387" s="1">
-        <f>H387*I387</f>
+        <f t="shared" si="12"/>
         <v>37840</v>
       </c>
       <c r="M387" s="1">
-        <f>L387*1.11</f>
+        <f t="shared" si="13"/>
         <v>42002.400000000001</v>
       </c>
       <c r="N387" t="s">
@@ -20372,7 +20378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>146</v>
       </c>
@@ -20407,11 +20413,11 @@
         <v>0</v>
       </c>
       <c r="L388" s="1">
-        <f>H388*I388</f>
+        <f t="shared" si="12"/>
         <v>30270</v>
       </c>
       <c r="M388" s="1">
-        <f>L388*1.11</f>
+        <f t="shared" si="13"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N388" t="s">
@@ -20421,7 +20427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>146</v>
       </c>
@@ -20456,11 +20462,11 @@
         <v>0</v>
       </c>
       <c r="L389" s="1">
-        <f>H389*I389</f>
+        <f t="shared" si="12"/>
         <v>30270</v>
       </c>
       <c r="M389" s="1">
-        <f>L389*1.11</f>
+        <f t="shared" si="13"/>
         <v>33599.700000000004</v>
       </c>
       <c r="N389" t="s">
@@ -20470,7 +20476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>146</v>
       </c>
@@ -20505,11 +20511,11 @@
         <v>0</v>
       </c>
       <c r="L390" s="1">
-        <f>H390*I390</f>
+        <f t="shared" si="12"/>
         <v>47523</v>
       </c>
       <c r="M390" s="1">
-        <f>L390*1.11</f>
+        <f t="shared" si="13"/>
         <v>52750.530000000006</v>
       </c>
       <c r="N390" t="s">
@@ -20519,7 +20525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>147</v>
       </c>
@@ -20554,11 +20560,11 @@
         <v>0</v>
       </c>
       <c r="L391" s="1">
-        <f>H391*I391</f>
+        <f t="shared" si="12"/>
         <v>36666</v>
       </c>
       <c r="M391" s="1">
-        <f>L391*1.11</f>
+        <f t="shared" si="13"/>
         <v>40699.26</v>
       </c>
       <c r="N391" t="s">
@@ -20568,7 +20574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>147</v>
       </c>
@@ -20603,11 +20609,11 @@
         <v>0</v>
       </c>
       <c r="L392" s="1">
-        <f>H392*I392</f>
+        <f t="shared" si="12"/>
         <v>36666</v>
       </c>
       <c r="M392" s="1">
-        <f>L392*1.11</f>
+        <f t="shared" si="13"/>
         <v>40699.26</v>
       </c>
       <c r="N392" t="s">
@@ -20617,7 +20623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>147</v>
       </c>
@@ -20652,11 +20658,11 @@
         <v>0</v>
       </c>
       <c r="L393" s="1">
-        <f>H393*I393</f>
+        <f t="shared" si="12"/>
         <v>23540</v>
       </c>
       <c r="M393" s="1">
-        <f>L393*1.11</f>
+        <f t="shared" si="13"/>
         <v>26129.4</v>
       </c>
       <c r="N393" t="s">
@@ -20666,7 +20672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>147</v>
       </c>
@@ -20701,11 +20707,11 @@
         <v>0</v>
       </c>
       <c r="L394" s="1">
-        <f>H394*I394</f>
+        <f t="shared" si="12"/>
         <v>11770</v>
       </c>
       <c r="M394" s="1">
-        <f>L394*1.11</f>
+        <f t="shared" si="13"/>
         <v>13064.7</v>
       </c>
       <c r="N394" t="s">
@@ -20715,7 +20721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>147</v>
       </c>
@@ -20750,11 +20756,11 @@
         <v>0</v>
       </c>
       <c r="L395" s="1">
-        <f>H395*I395</f>
+        <f t="shared" si="12"/>
         <v>11770</v>
       </c>
       <c r="M395" s="1">
-        <f>L395*1.11</f>
+        <f t="shared" si="13"/>
         <v>13064.7</v>
       </c>
       <c r="N395" t="s">
@@ -20764,7 +20770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>147</v>
       </c>
@@ -20799,11 +20805,11 @@
         <v>0</v>
       </c>
       <c r="L396" s="1">
-        <f>H396*I396</f>
+        <f t="shared" si="12"/>
         <v>18168</v>
       </c>
       <c r="M396" s="1">
-        <f>L396*1.11</f>
+        <f t="shared" si="13"/>
         <v>20166.480000000003</v>
       </c>
       <c r="N396" t="s">
@@ -20813,7 +20819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>148</v>
       </c>
@@ -20848,11 +20854,11 @@
         <v>0</v>
       </c>
       <c r="L397" s="1">
-        <f>H397*I397</f>
+        <f t="shared" si="12"/>
         <v>190092</v>
       </c>
       <c r="M397" s="1">
-        <f>L397*1.11</f>
+        <f t="shared" si="13"/>
         <v>211002.12000000002</v>
       </c>
       <c r="N397" t="s">
@@ -20862,7 +20868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>148</v>
       </c>
@@ -20897,11 +20903,11 @@
         <v>0</v>
       </c>
       <c r="L398" s="1">
-        <f>H398*I398</f>
+        <f t="shared" si="12"/>
         <v>100912</v>
       </c>
       <c r="M398" s="1">
-        <f>L398*1.11</f>
+        <f t="shared" si="13"/>
         <v>112012.32</v>
       </c>
       <c r="N398" t="s">
@@ -20911,7 +20917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>149</v>
       </c>
@@ -20946,11 +20952,11 @@
         <v>0</v>
       </c>
       <c r="L399" s="1">
-        <f>H399*I399</f>
+        <f t="shared" si="12"/>
         <v>22704</v>
       </c>
       <c r="M399" s="1">
-        <f>L399*1.11</f>
+        <f t="shared" si="13"/>
         <v>25201.440000000002</v>
       </c>
       <c r="N399" t="s">
@@ -20960,7 +20966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>149</v>
       </c>
@@ -20995,11 +21001,11 @@
         <v>0</v>
       </c>
       <c r="L400" s="1">
-        <f>H400*I400</f>
+        <f t="shared" si="12"/>
         <v>14120</v>
       </c>
       <c r="M400" s="1">
-        <f>L400*1.11</f>
+        <f t="shared" si="13"/>
         <v>15673.2</v>
       </c>
       <c r="N400" t="s">
@@ -21009,7 +21015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>149</v>
       </c>
@@ -21044,11 +21050,11 @@
         <v>0</v>
       </c>
       <c r="L401" s="1">
-        <f>H401*I401</f>
+        <f t="shared" si="12"/>
         <v>18162</v>
       </c>
       <c r="M401" s="1">
-        <f>L401*1.11</f>
+        <f t="shared" si="13"/>
         <v>20159.820000000003</v>
       </c>
       <c r="N401" t="s">
@@ -21058,7 +21064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>149</v>
       </c>
@@ -21093,11 +21099,11 @@
         <v>0</v>
       </c>
       <c r="L402" s="1">
-        <f>H402*I402</f>
+        <f t="shared" si="12"/>
         <v>18162</v>
       </c>
       <c r="M402" s="1">
-        <f>L402*1.11</f>
+        <f t="shared" si="13"/>
         <v>20159.820000000003</v>
       </c>
       <c r="N402" t="s">
@@ -21107,7 +21113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>149</v>
       </c>
@@ -21142,11 +21148,11 @@
         <v>0</v>
       </c>
       <c r="L403" s="1">
-        <f>H403*I403</f>
+        <f t="shared" si="12"/>
         <v>18162</v>
       </c>
       <c r="M403" s="1">
-        <f>L403*1.11</f>
+        <f t="shared" si="13"/>
         <v>20159.820000000003</v>
       </c>
       <c r="N403" t="s">
@@ -21156,7 +21162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>149</v>
       </c>
@@ -21191,11 +21197,11 @@
         <v>0</v>
       </c>
       <c r="L404" s="1">
-        <f>H404*I404</f>
+        <f t="shared" si="12"/>
         <v>7062</v>
       </c>
       <c r="M404" s="1">
-        <f>L404*1.11</f>
+        <f t="shared" si="13"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N404" t="s">
@@ -21205,7 +21211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>149</v>
       </c>
@@ -21240,11 +21246,11 @@
         <v>0</v>
       </c>
       <c r="L405" s="1">
-        <f>H405*I405</f>
+        <f t="shared" si="12"/>
         <v>7062</v>
       </c>
       <c r="M405" s="1">
-        <f>L405*1.11</f>
+        <f t="shared" si="13"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N405" t="s">
@@ -21254,7 +21260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>149</v>
       </c>
@@ -21289,11 +21295,11 @@
         <v>0</v>
       </c>
       <c r="L406" s="1">
-        <f>H406*I406</f>
+        <f t="shared" si="12"/>
         <v>7062</v>
       </c>
       <c r="M406" s="1">
-        <f>L406*1.11</f>
+        <f t="shared" si="13"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N406" t="s">
@@ -21303,7 +21309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>149</v>
       </c>
@@ -21338,11 +21344,11 @@
         <v>0</v>
       </c>
       <c r="L407" s="1">
-        <f>H407*I407</f>
+        <f t="shared" si="12"/>
         <v>7062</v>
       </c>
       <c r="M407" s="1">
-        <f>L407*1.11</f>
+        <f t="shared" si="13"/>
         <v>7838.8200000000006</v>
       </c>
       <c r="N407" t="s">
@@ -21352,7 +21358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>149</v>
       </c>
@@ -21387,11 +21393,11 @@
         <v>0</v>
       </c>
       <c r="L408" s="1">
-        <f>H408*I408</f>
+        <f t="shared" si="12"/>
         <v>8409</v>
       </c>
       <c r="M408" s="1">
-        <f>L408*1.11</f>
+        <f t="shared" si="13"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N408" t="s">
@@ -21401,7 +21407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>149</v>
       </c>
@@ -21436,11 +21442,11 @@
         <v>0</v>
       </c>
       <c r="L409" s="1">
-        <f>H409*I409</f>
+        <f t="shared" si="12"/>
         <v>8409</v>
       </c>
       <c r="M409" s="1">
-        <f>L409*1.11</f>
+        <f t="shared" si="13"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N409" t="s">
@@ -21450,7 +21456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>149</v>
       </c>
@@ -21485,11 +21491,11 @@
         <v>0</v>
       </c>
       <c r="L410" s="1">
-        <f>H410*I410</f>
+        <f t="shared" si="12"/>
         <v>8409</v>
       </c>
       <c r="M410" s="1">
-        <f>L410*1.11</f>
+        <f t="shared" si="13"/>
         <v>9333.9900000000016</v>
       </c>
       <c r="N410" t="s">
@@ -21499,7 +21505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>150</v>
       </c>
@@ -21534,11 +21540,11 @@
         <v>0</v>
       </c>
       <c r="L411" s="1">
-        <f>H411*I411</f>
+        <f t="shared" si="12"/>
         <v>127120</v>
       </c>
       <c r="M411" s="1">
-        <f>L411*1.11</f>
+        <f t="shared" si="13"/>
         <v>141103.20000000001</v>
       </c>
       <c r="N411" t="s">
@@ -21548,7 +21554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>150</v>
       </c>
@@ -21583,27 +21589,73 @@
         <v>0</v>
       </c>
       <c r="L412" s="1">
-        <f>H412*I412</f>
+        <f t="shared" si="12"/>
         <v>127120</v>
       </c>
       <c r="M412" s="1">
-        <f>L412*1.11</f>
+        <f t="shared" si="13"/>
         <v>141103.20000000001</v>
       </c>
       <c r="N412" t="s">
         <v>16</v>
       </c>
       <c r="O412" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A413" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B413" s="21">
+        <v>45619</v>
+      </c>
+      <c r="C413" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D413" s="21">
+        <v>45619</v>
+      </c>
+      <c r="E413" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F413" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="G413" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H413" s="22">
+        <v>40</v>
+      </c>
+      <c r="I413" s="23">
+        <v>5432</v>
+      </c>
+      <c r="J413" s="22">
+        <v>0</v>
+      </c>
+      <c r="K413" s="23">
+        <v>0</v>
+      </c>
+      <c r="L413" s="23">
+        <f t="shared" si="12"/>
+        <v>217280</v>
+      </c>
+      <c r="M413" s="23">
+        <f t="shared" si="13"/>
+        <v>241180.80000000002</v>
+      </c>
+      <c r="N413" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O413" s="24" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O412" xr:uid="{B7A3EDEE-945D-4631-9436-C34F0AA2C526}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O412">
-      <sortCondition sortBy="cellColor" ref="A1:A412" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="A1:A412" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NOV 2024 2024_MSLSINVDIST.xlsx
+++ b/NOV 2024 2024_MSLSINVDIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT-Aplikasi SPV\Documents\ASIATOP\Cek\CekSID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC212F06-3804-4323-9EFC-E2BF533C4AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89430A-AEAD-47F2-870E-8B729963B8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25020" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1394,30 +1394,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A3EDEE-945D-4631-9436-C34F0AA2C526}">
   <dimension ref="A1:O413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="E403" sqref="E403"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>33</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>33</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>35</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>35</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>36</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>36</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>36</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>37</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>37</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>37</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>37</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>37</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>37</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>38</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>38</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>39</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>39</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>40</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>40</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>40</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>40</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>41</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>41</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>41</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>41</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>41</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>42</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>42</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>42</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>42</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>42</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>43</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>43</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>44</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>44</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>44</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>45</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>45</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>45</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>45</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>46</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>47</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>48</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>48</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>48</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>48</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>48</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>49</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>49</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>49</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>49</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>49</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>49</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>49</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>50</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>50</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>50</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>51</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>51</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>52</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>53</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>53</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>54</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>55</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>55</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>55</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>55</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>55</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>56</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>56</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>56</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>56</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>56</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>56</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>56</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>57</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>57</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>57</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>57</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>57</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>57</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>58</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>58</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>58</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>58</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>59</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>59</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>59</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>60</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>61</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>61</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>62</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>62</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>62</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>63</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>64</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>65</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>65</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>65</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>65</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>65</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>66</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>66</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>67</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>67</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>67</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>67</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>68</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>69</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>69</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>69</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>69</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>70</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>70</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>70</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>70</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>70</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>70</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>71</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>71</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>71</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>72</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>72</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>73</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>73</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>74</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>74</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>74</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>74</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>74</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>75</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>76</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>76</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>77</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>77</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>77</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>77</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>77</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>77</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>78</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>78</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>78</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>78</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>78</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>78</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>79</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>79</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>80</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>81</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>81</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>82</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>83</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>83</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>83</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>83</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>83</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>84</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>85</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>86</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>86</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>86</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>86</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>87</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>87</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>88</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>88</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>88</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>89</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>90</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>90</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>90</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>90</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>90</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>90</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>90</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>91</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>91</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>91</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>91</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>92</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>93</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>93</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>94</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>94</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>95</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>95</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>95</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>96</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>96</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>96</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>96</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>96</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>96</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>97</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>98</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>99</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>100</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>101</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>101</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>101</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>102</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>102</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>102</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>102</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>103</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>103</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>103</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>104</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>104</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>104</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>104</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>104</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>104</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>104</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>104</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>105</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>106</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>106</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>106</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>107</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>107</v>
       </c>
@@ -14547,7 +14547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>108</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>108</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>108</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>108</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>108</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>108</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>108</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>108</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>109</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>110</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>110</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>110</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>110</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>110</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>110</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>111</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>112</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>112</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>112</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>112</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>113</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>113</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>113</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>113</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>114</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>114</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>115</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>115</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>115</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>115</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>116</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>116</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>117</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>117</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>118</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>119</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>119</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>119</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>119</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>119</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>119</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>120</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>120</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>120</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>120</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>121</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>121</v>
       </c>
@@ -16850,7 +16850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>121</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>121</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>121</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>122</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>123</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>123</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>123</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>124</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>124</v>
       </c>
@@ -17291,7 +17291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>124</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>125</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>126</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>127</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>127</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>127</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>127</v>
       </c>
@@ -17634,7 +17634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>128</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>128</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>129</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>130</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>131</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>131</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>132</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>133</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>133</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>133</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>133</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>133</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>134</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>134</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>134</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>134</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>135</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>135</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>135</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>136</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>136</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>136</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>136</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>136</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>137</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>137</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>137</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>138</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>138</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>138</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>139</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>139</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>139</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>139</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>139</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>139</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>140</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
         <v>140</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>140</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>140</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>141</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>141</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>141</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>141</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>142</v>
       </c>
@@ -19839,7 +19839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
         <v>142</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>142</v>
       </c>
@@ -19937,7 +19937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
         <v>143</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>144</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>144</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
         <v>145</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
         <v>145</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>145</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
         <v>145</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>146</v>
       </c>
@@ -20319,7 +20319,7 @@
         <v>37840</v>
       </c>
       <c r="M386" s="1">
-        <f t="shared" ref="M386:M449" si="13">L386*1.11</f>
+        <f t="shared" ref="M386:M413" si="13">L386*1.11</f>
         <v>42002.400000000001</v>
       </c>
       <c r="N386" t="s">
@@ -20329,7 +20329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>146</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>146</v>
       </c>
@@ -20427,7 +20427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>146</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>146</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
         <v>147</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>147</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
         <v>147</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>147</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>147</v>
       </c>
@@ -20770,7 +20770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>147</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>148</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>148</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>149</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>149</v>
       </c>
@@ -21015,7 +21015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>149</v>
       </c>
@@ -21064,7 +21064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>149</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
         <v>149</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>149</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>149</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>149</v>
       </c>
@@ -21309,7 +21309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>149</v>
       </c>
@@ -21358,7 +21358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>149</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
         <v>149</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>149</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>150</v>
       </c>
@@ -21554,7 +21554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
         <v>150</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="20" t="s">
         <v>293</v>
       </c>
